--- a/Arjun Data/Profitability Calculator Arjun.xlsx
+++ b/Arjun Data/Profitability Calculator Arjun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="60" windowWidth="13980" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="105" yWindow="60" windowWidth="13980" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="6" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2599,9 +2602,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2805,91 +2805,91 @@
                   <c:v>2735.5479999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2817.6144399999998</c:v>
+                  <c:v>2820.9604999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2902.1428731999999</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2989.207159396</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3078.8833741778799</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3171.2498754032163</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3266.3873716653129</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3364.3789928152723</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3465.3103625997305</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3569.2696734777223</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3676.3477636820539</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3786.6381965925157</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3900.2373424902912</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4017.2444627649998</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4137.7617966479502</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4261.8946505473887</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4389.7514900638107</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4521.4440347657246</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4657.087355808696</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4796.7999764829565</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4940.7039757774455</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5088.9250950507685</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5241.5928479022914</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5398.8406333393605</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5560.8058523395412</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5727.6300279097277</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5899.4589287470199</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6076.4426966094306</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6258.7359775077139</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6446.4980568329456</c:v>
+                  <c:v>2868.5942999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,11 +2906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138807552"/>
-        <c:axId val="84156416"/>
+        <c:axId val="134695168"/>
+        <c:axId val="94183808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138807552"/>
+        <c:axId val="134695168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2920,7 +2920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84156416"/>
+        <c:crossAx val="94183808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2928,7 +2928,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84156416"/>
+        <c:axId val="94183808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,7 +2939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138807552"/>
+        <c:crossAx val="134695168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3280,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,11 +3310,11 @@
       </c>
       <c r="E2" s="8">
         <f ca="1">(VLOOKUP(IF(WEEKDAY(TODAY(),2)=6,TODAY()-1,IF(WEEKDAY(TODAY(),2)=7,TODAY()-2,TODAY())),A8:E115,5))-$B$7</f>
-        <v>189.12190499999997</v>
+        <v>253.50362164799981</v>
       </c>
       <c r="F2" s="9">
         <f ca="1">$E$2/$B$7</f>
-        <v>6.0899999999999996E-2</v>
+        <v>8.2432159999999935E-2</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" s="11" t="s">
@@ -3327,7 +3327,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" s="4">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D3" s="4"/>
       <c r="I3" s="6" t="s">
@@ -3375,15 +3375,15 @@
       </c>
       <c r="C6" s="20">
         <f t="shared" ref="C6:C71" si="0">B6*$C$3</f>
-        <v>90.45</v>
+        <v>60.300000000000004</v>
       </c>
       <c r="D6" s="40">
         <f>C6/B6</f>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" ref="E6:E69" si="1">B6+C6</f>
-        <v>3105.45</v>
+        <v>3075.3</v>
       </c>
       <c r="F6" s="45"/>
       <c r="I6" s="6"/>
@@ -3396,19 +3396,19 @@
       </c>
       <c r="B7" s="24">
         <f>E6</f>
-        <v>3105.45</v>
+        <v>3075.3</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>93.163499999999985</v>
+        <v>61.506000000000007</v>
       </c>
       <c r="D7" s="40">
         <f>C7/B7</f>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="22">
         <f t="shared" si="1"/>
-        <v>3198.6134999999999</v>
+        <v>3136.806</v>
       </c>
       <c r="F7" s="19"/>
       <c r="I7" s="6"/>
@@ -3421,35 +3421,35 @@
       </c>
       <c r="B8" s="8">
         <f t="shared" ref="B8:B71" si="2">E7</f>
-        <v>3198.6134999999999</v>
+        <v>3136.806</v>
       </c>
       <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v>95.958404999999999</v>
+        <v>62.73612</v>
       </c>
       <c r="D8" s="40">
         <f>C8/B8</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="22">
         <f t="shared" si="1"/>
-        <v>3294.5719049999998</v>
+        <v>3199.5421200000001</v>
       </c>
       <c r="F8" s="23">
         <f t="shared" ref="F8:F71" si="3">E8/10000000</f>
-        <v>3.2945719049999996E-4</v>
+        <v>3.1995421200000003E-4</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I71" si="4">B8*$J$2/$J$3</f>
-        <v>548.89787222222219</v>
+        <v>538.29139999999995</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" ref="J8:J71" si="5">C8/I8</f>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ref="K8:K71" si="6">(B8*0.05)/I8</f>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482022</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3458,35 +3458,35 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" si="2"/>
-        <v>3294.5719049999998</v>
+        <v>3199.5421200000001</v>
       </c>
       <c r="C9" s="20">
         <f t="shared" si="0"/>
-        <v>98.837157149999996</v>
+        <v>63.990842400000005</v>
       </c>
       <c r="D9" s="21">
         <f t="shared" ref="D9:D72" si="7">C9/B9</f>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" si="1"/>
-        <v>3393.40906215</v>
+        <v>3263.5329624000001</v>
       </c>
       <c r="F9" s="23">
         <f t="shared" si="3"/>
-        <v>3.39340906215E-4</v>
+        <v>3.2635329624000002E-4</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="4"/>
-        <v>565.36480838888883</v>
+        <v>549.05722800000001</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482022</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,31 +3495,31 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" si="2"/>
-        <v>3393.40906215</v>
+        <v>3263.5329624000001</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" si="0"/>
-        <v>101.8022718645</v>
+        <v>65.270659248000001</v>
       </c>
       <c r="D10" s="40">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="1"/>
-        <v>3495.2113340145002</v>
+        <v>3328.803621648</v>
       </c>
       <c r="F10" s="23">
         <f t="shared" si="3"/>
-        <v>3.4952113340145003E-4</v>
+        <v>3.3288036216480002E-4</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="4"/>
-        <v>582.32575264055549</v>
+        <v>560.03837255999997</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489212</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="6"/>
@@ -3532,31 +3532,31 @@
       </c>
       <c r="B11" s="8">
         <f t="shared" si="2"/>
-        <v>3495.2113340145002</v>
+        <v>3328.803621648</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" si="0"/>
-        <v>104.856340020435</v>
+        <v>66.576072432960004</v>
       </c>
       <c r="D11" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" si="1"/>
-        <v>3600.067674034935</v>
+        <v>3395.3796940809598</v>
       </c>
       <c r="F11" s="23">
         <f t="shared" si="3"/>
-        <v>3.6000676740349352E-4</v>
+        <v>3.39537969408096E-4</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="4"/>
-        <v>599.79552521977234</v>
+        <v>571.23914001120011</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="6"/>
@@ -3570,31 +3570,31 @@
       </c>
       <c r="B12" s="8">
         <f t="shared" si="2"/>
-        <v>3600.067674034935</v>
+        <v>3395.3796940809598</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" si="0"/>
-        <v>108.00203022104805</v>
+        <v>67.907593881619192</v>
       </c>
       <c r="D12" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="1"/>
-        <v>3708.0697042559832</v>
+        <v>3463.2872879625788</v>
       </c>
       <c r="F12" s="23">
         <f t="shared" si="3"/>
-        <v>3.7080697042559833E-4</v>
+        <v>3.463287287962579E-4</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="4"/>
-        <v>617.78939097636544</v>
+        <v>582.66392281142396</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="6"/>
@@ -3608,31 +3608,31 @@
       </c>
       <c r="B13" s="8">
         <f t="shared" si="2"/>
-        <v>3708.0697042559832</v>
+        <v>3463.2872879625788</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" si="0"/>
-        <v>111.24209112767949</v>
+        <v>69.265745759251573</v>
       </c>
       <c r="D13" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="1"/>
-        <v>3819.3117953836627</v>
+        <v>3532.5530337218306</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="3"/>
-        <v>3.8193117953836628E-4</v>
+        <v>3.5325530337218308E-4</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="4"/>
-        <v>636.32307270565639</v>
+        <v>594.31720126765242</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="6"/>
@@ -3645,35 +3645,35 @@
       </c>
       <c r="B14" s="8">
         <f t="shared" si="2"/>
-        <v>3819.3117953836627</v>
+        <v>3532.5530337218306</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" si="0"/>
-        <v>114.57935386150987</v>
+        <v>70.651060674436607</v>
       </c>
       <c r="D14" s="40">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="1"/>
-        <v>3933.8911492451725</v>
+        <v>3603.204094396267</v>
       </c>
       <c r="F14" s="23">
         <f t="shared" si="3"/>
-        <v>3.9338911492451723E-4</v>
+        <v>3.603204094396267E-4</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="4"/>
-        <v>655.41276488682615</v>
+        <v>606.2035452930055</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3682,35 +3682,35 @@
       </c>
       <c r="B15" s="8">
         <f t="shared" si="2"/>
-        <v>3933.8911492451725</v>
+        <v>3603.204094396267</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" si="0"/>
-        <v>118.01673447735517</v>
+        <v>72.06408188792534</v>
       </c>
       <c r="D15" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="1"/>
-        <v>4051.9078837225279</v>
+        <v>3675.2681762841921</v>
       </c>
       <c r="F15" s="23">
         <f t="shared" si="3"/>
-        <v>4.0519078837225278E-4</v>
+        <v>3.675268176284192E-4</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="4"/>
-        <v>675.07514783343083</v>
+        <v>618.3276161988656</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3719,35 +3719,35 @@
       </c>
       <c r="B16" s="8">
         <f t="shared" si="2"/>
-        <v>4051.9078837225279</v>
+        <v>3675.2681762841921</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" si="0"/>
-        <v>121.55723651167584</v>
+        <v>73.505363525683848</v>
       </c>
       <c r="D16" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E16" s="22">
         <f t="shared" si="1"/>
-        <v>4173.4651202342038</v>
+        <v>3748.7735398098762</v>
       </c>
       <c r="F16" s="23">
         <f t="shared" si="3"/>
-        <v>4.1734651202342038E-4</v>
+        <v>3.7487735398098761E-4</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="4"/>
-        <v>695.32740226843384</v>
+        <v>630.69416852284292</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K16" s="6">
         <f>(B16*0.05)/I16</f>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3756,35 +3756,35 @@
       </c>
       <c r="B17" s="8">
         <f t="shared" si="2"/>
-        <v>4173.4651202342038</v>
+        <v>3748.7735398098762</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" si="0"/>
-        <v>125.20395360702611</v>
+        <v>74.975470796197527</v>
       </c>
       <c r="D17" s="40">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E17" s="22">
         <f t="shared" si="1"/>
-        <v>4298.6690738412299</v>
+        <v>3823.7490106060736</v>
       </c>
       <c r="F17" s="23">
         <f t="shared" si="3"/>
-        <v>4.2986690738412297E-4</v>
+        <v>3.8237490106060736E-4</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="4"/>
-        <v>716.18722433648691</v>
+        <v>643.30805189329976</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3793,31 +3793,31 @@
       </c>
       <c r="B18" s="8">
         <f t="shared" si="2"/>
-        <v>4298.6690738412299</v>
+        <v>3823.7490106060736</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" si="0"/>
-        <v>128.96007221523689</v>
+        <v>76.47498021212148</v>
       </c>
       <c r="D18" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="1"/>
-        <v>4427.6291460564671</v>
+        <v>3900.223990818195</v>
       </c>
       <c r="F18" s="23">
         <f t="shared" si="3"/>
-        <v>4.4276291460564673E-4</v>
+        <v>3.9002239908181953E-4</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="4"/>
-        <v>737.67284106658144</v>
+        <v>656.1742129311657</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="6"/>
@@ -3830,31 +3830,31 @@
       </c>
       <c r="B19" s="8">
         <f t="shared" si="2"/>
-        <v>4427.6291460564671</v>
+        <v>3900.223990818195</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" si="0"/>
-        <v>132.82887438169402</v>
+        <v>78.004479816363897</v>
       </c>
       <c r="D19" s="21">
         <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="1"/>
-        <v>4560.4580204381609</v>
+        <v>3978.228470634559</v>
       </c>
       <c r="F19" s="23">
         <f t="shared" si="3"/>
-        <v>4.560458020438161E-4</v>
+        <v>3.9782284706345588E-4</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="4"/>
-        <v>759.80302629857897</v>
+        <v>669.29769718978901</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="6"/>
@@ -3867,35 +3867,35 @@
       </c>
       <c r="B20" s="8">
         <f t="shared" si="2"/>
-        <v>4560.4580204381609</v>
+        <v>3978.228470634559</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" si="0"/>
-        <v>136.81374061314483</v>
+        <v>79.564569412691185</v>
       </c>
       <c r="D20" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="1"/>
-        <v>4697.2717610513055</v>
+        <v>4057.7930400472501</v>
       </c>
       <c r="F20" s="23">
         <f t="shared" si="3"/>
-        <v>4.6972717610513056E-4</v>
+        <v>4.0577930400472503E-4</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="4"/>
-        <v>782.59711708753628</v>
+        <v>682.68365113358493</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3904,35 +3904,35 @@
       </c>
       <c r="B21" s="8">
         <f t="shared" si="2"/>
-        <v>4697.2717610513055</v>
+        <v>4057.7930400472501</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" si="0"/>
-        <v>140.91815283153915</v>
+        <v>81.155860800945007</v>
       </c>
       <c r="D21" s="21">
         <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="1"/>
-        <v>4838.1899138828448</v>
+        <v>4138.9489008481951</v>
       </c>
       <c r="F21" s="23">
         <f t="shared" si="3"/>
-        <v>4.8381899138828446E-4</v>
+        <v>4.1389489008481953E-4</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="4"/>
-        <v>806.07503060016222</v>
+        <v>696.3373241562565</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482022</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3941,35 +3941,35 @@
       </c>
       <c r="B22" s="8">
         <f t="shared" si="2"/>
-        <v>4838.1899138828448</v>
+        <v>4138.9489008481951</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" si="0"/>
-        <v>145.14569741648535</v>
+        <v>82.778978016963904</v>
       </c>
       <c r="D22" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="1"/>
-        <v>4983.3356112993306</v>
+        <v>4221.7278788651593</v>
       </c>
       <c r="F22" s="23">
         <f t="shared" si="3"/>
-        <v>4.983335611299331E-4</v>
+        <v>4.2217278788651591E-4</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="4"/>
-        <v>830.25728151816725</v>
+        <v>710.26407063938166</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3978,35 +3978,35 @@
       </c>
       <c r="B23" s="8">
         <f t="shared" si="2"/>
-        <v>4983.3356112993306</v>
+        <v>4221.7278788651593</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" si="0"/>
-        <v>149.5000683389799</v>
+        <v>84.434557577303181</v>
       </c>
       <c r="D23" s="21">
         <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="1"/>
-        <v>5132.8356796383105</v>
+        <v>4306.1624364424624</v>
       </c>
       <c r="F23" s="23">
         <f t="shared" si="3"/>
-        <v>5.1328356796383103E-4</v>
+        <v>4.3061624364424626E-4</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="4"/>
-        <v>855.16499996371226</v>
+        <v>724.46935205216937</v>
       </c>
       <c r="J23" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992804</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4015,35 +4015,35 @@
       </c>
       <c r="B24" s="8">
         <f t="shared" si="2"/>
-        <v>5132.8356796383105</v>
+        <v>4306.1624364424624</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" si="0"/>
-        <v>153.98507038914931</v>
+        <v>86.123248728849248</v>
       </c>
       <c r="D24" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E24" s="22">
         <f t="shared" si="1"/>
-        <v>5286.8207500274602</v>
+        <v>4392.2856851713113</v>
       </c>
       <c r="F24" s="23">
         <f t="shared" si="3"/>
-        <v>5.2868207500274603E-4</v>
+        <v>4.3922856851713111E-4</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="4"/>
-        <v>880.81994996262358</v>
+        <v>738.95873909321278</v>
       </c>
       <c r="J24" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992804</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4052,31 +4052,31 @@
       </c>
       <c r="B25" s="8">
         <f t="shared" si="2"/>
-        <v>5286.8207500274602</v>
+        <v>4392.2856851713113</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" si="0"/>
-        <v>158.60462250082381</v>
+        <v>87.845713703426227</v>
       </c>
       <c r="D25" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" si="1"/>
-        <v>5445.4253725282842</v>
+        <v>4480.1313988747379</v>
       </c>
       <c r="F25" s="23">
         <f t="shared" si="3"/>
-        <v>5.4454253725282845E-4</v>
+        <v>4.4801313988747376E-4</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="4"/>
-        <v>907.2445484615024</v>
+        <v>753.73791387507686</v>
       </c>
       <c r="J25" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="6"/>
@@ -4089,35 +4089,35 @@
       </c>
       <c r="B26" s="8">
         <f t="shared" si="2"/>
-        <v>5445.4253725282842</v>
+        <v>4480.1313988747379</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" si="0"/>
-        <v>163.36276117584853</v>
+        <v>89.602627977494762</v>
       </c>
       <c r="D26" s="21">
         <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="1"/>
-        <v>5608.7881337041326</v>
+        <v>4569.734026852233</v>
       </c>
       <c r="F26" s="23">
         <f t="shared" si="3"/>
-        <v>5.6087881337041324E-4</v>
+        <v>4.5697340268522328E-4</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="4"/>
-        <v>934.46188491534758</v>
+        <v>768.81267215257844</v>
       </c>
       <c r="J26" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4126,35 +4126,35 @@
       </c>
       <c r="B27" s="8">
         <f t="shared" si="2"/>
-        <v>5608.7881337041326</v>
+        <v>4569.734026852233</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" si="0"/>
-        <v>168.26364401112397</v>
+        <v>91.394680537044664</v>
       </c>
       <c r="D27" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E27" s="22">
         <f t="shared" si="1"/>
-        <v>5777.0517777152563</v>
+        <v>4661.1287073892772</v>
       </c>
       <c r="F27" s="23">
         <f t="shared" si="3"/>
-        <v>5.7770517777152566E-4</v>
+        <v>4.6611287073892771E-4</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="4"/>
-        <v>962.49574146280804</v>
+        <v>784.18892559563017</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4163,31 +4163,31 @@
       </c>
       <c r="B28" s="8">
         <f t="shared" si="2"/>
-        <v>5777.0517777152563</v>
+        <v>4661.1287073892772</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" si="0"/>
-        <v>173.31155333145767</v>
+        <v>93.222574147785551</v>
       </c>
       <c r="D28" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E28" s="22">
         <f t="shared" si="1"/>
-        <v>5950.3633310467139</v>
+        <v>4754.3512815370632</v>
       </c>
       <c r="F28" s="23">
         <f t="shared" si="3"/>
-        <v>5.9503633310467141E-4</v>
+        <v>4.7543512815370631E-4</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="4"/>
-        <v>991.3706137066921</v>
+        <v>799.87270410754263</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="6"/>
@@ -4200,35 +4200,35 @@
       </c>
       <c r="B29" s="8">
         <f t="shared" si="2"/>
-        <v>5950.3633310467139</v>
+        <v>4754.3512815370632</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" si="0"/>
-        <v>178.51089993140141</v>
+        <v>95.087025630741266</v>
       </c>
       <c r="D29" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E29" s="22">
         <f t="shared" si="1"/>
-        <v>6128.8742309781155</v>
+        <v>4849.4383071678049</v>
       </c>
       <c r="F29" s="23">
         <f t="shared" si="3"/>
-        <v>6.1288742309781156E-4</v>
+        <v>4.8494383071678046E-4</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="4"/>
-        <v>1021.111732117893</v>
+        <v>815.87015818969348</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4237,31 +4237,31 @@
       </c>
       <c r="B30" s="8">
         <f t="shared" si="2"/>
-        <v>6128.8742309781155</v>
+        <v>4849.4383071678049</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="0"/>
-        <v>183.86622692934347</v>
+        <v>96.988766143356102</v>
       </c>
       <c r="D30" s="40">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E30" s="22">
         <f t="shared" si="1"/>
-        <v>6312.7404579074591</v>
+        <v>4946.4270733111607</v>
       </c>
       <c r="F30" s="23">
         <f t="shared" si="3"/>
-        <v>6.312740457907459E-4</v>
+        <v>4.9464270733111609E-4</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="4"/>
-        <v>1051.7450840814297</v>
+        <v>832.18756135348747</v>
       </c>
       <c r="J30" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="6"/>
@@ -4274,35 +4274,35 @@
       </c>
       <c r="B31" s="8">
         <f t="shared" si="2"/>
-        <v>6312.7404579074591</v>
+        <v>4946.4270733111607</v>
       </c>
       <c r="C31" s="20">
         <f t="shared" si="0"/>
-        <v>189.38221373722376</v>
+        <v>98.928541466223223</v>
       </c>
       <c r="D31" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E31" s="22">
         <f t="shared" si="1"/>
-        <v>6502.1226716446827</v>
+        <v>5045.3556147773843</v>
       </c>
       <c r="F31" s="23">
         <f t="shared" si="3"/>
-        <v>6.5021226716446823E-4</v>
+        <v>5.045355614777384E-4</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="4"/>
-        <v>1083.2974366038727</v>
+        <v>848.83131258055732</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4311,35 +4311,35 @@
       </c>
       <c r="B32" s="8">
         <f t="shared" si="2"/>
-        <v>6502.1226716446827</v>
+        <v>5045.3556147773843</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="0"/>
-        <v>195.06368014934048</v>
+        <v>100.90711229554769</v>
       </c>
       <c r="D32" s="21">
         <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E32" s="22">
         <f t="shared" si="1"/>
-        <v>6697.1863517940228</v>
+        <v>5146.2627270729317</v>
       </c>
       <c r="F32" s="23">
         <f t="shared" si="3"/>
-        <v>6.6971863517940227E-4</v>
+        <v>5.1462627270729318E-4</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="4"/>
-        <v>1115.7963597019889</v>
+        <v>865.80793883216847</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4348,31 +4348,31 @@
       </c>
       <c r="B33" s="8">
         <f t="shared" si="2"/>
-        <v>6697.1863517940228</v>
+        <v>5146.2627270729317</v>
       </c>
       <c r="C33" s="20">
         <f t="shared" si="0"/>
-        <v>200.91559055382066</v>
+        <v>102.92525454145864</v>
       </c>
       <c r="D33" s="21">
         <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E33" s="22">
         <f t="shared" si="1"/>
-        <v>6898.1019423478438</v>
+        <v>5249.1879816143901</v>
       </c>
       <c r="F33" s="23">
         <f t="shared" si="3"/>
-        <v>6.8981019423478441E-4</v>
+        <v>5.2491879816143905E-4</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="4"/>
-        <v>1149.2702504930483</v>
+        <v>883.12409760881167</v>
       </c>
       <c r="J33" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="6"/>
@@ -4385,35 +4385,35 @@
       </c>
       <c r="B34" s="8">
         <f t="shared" si="2"/>
-        <v>6898.1019423478438</v>
+        <v>5249.1879816143901</v>
       </c>
       <c r="C34" s="20">
         <f t="shared" si="0"/>
-        <v>206.9430582704353</v>
+        <v>104.9837596322878</v>
       </c>
       <c r="D34" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E34" s="22">
         <f t="shared" si="1"/>
-        <v>7105.0450006182791</v>
+        <v>5354.1717412466778</v>
       </c>
       <c r="F34" s="23">
         <f t="shared" si="3"/>
-        <v>7.1050450006182792E-4</v>
+        <v>5.3541717412466776E-4</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="4"/>
-        <v>1183.7483580078399</v>
+        <v>900.78657956098789</v>
       </c>
       <c r="J34" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4422,36 +4422,36 @@
       </c>
       <c r="B35" s="8">
         <f t="shared" si="2"/>
-        <v>7105.0450006182791</v>
+        <v>5354.1717412466778</v>
       </c>
       <c r="C35" s="20">
         <f t="shared" si="0"/>
-        <v>213.15135001854836</v>
+        <v>107.08343482493356</v>
       </c>
       <c r="D35" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E35" s="22">
         <f t="shared" si="1"/>
-        <v>7318.1963506368274</v>
+        <v>5461.2551760716115</v>
       </c>
       <c r="F35" s="23">
         <f t="shared" si="3"/>
-        <v>7.3181963506368272E-4</v>
+        <v>5.4612551760716119E-4</v>
       </c>
       <c r="G35" s="1"/>
       <c r="I35" s="8">
         <f t="shared" si="4"/>
-        <v>1219.2608087480751</v>
+        <v>918.80231115220772</v>
       </c>
       <c r="J35" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4460,31 +4460,31 @@
       </c>
       <c r="B36" s="8">
         <f t="shared" si="2"/>
-        <v>7318.1963506368274</v>
+        <v>5461.2551760716115</v>
       </c>
       <c r="C36" s="20">
         <f t="shared" si="0"/>
-        <v>219.5458905191048</v>
+        <v>109.22510352143223</v>
       </c>
       <c r="D36" s="21">
         <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E36" s="22">
         <f t="shared" si="1"/>
-        <v>7537.7422411559319</v>
+        <v>5570.4802795930436</v>
       </c>
       <c r="F36" s="23">
         <f t="shared" si="3"/>
-        <v>7.5377422411559319E-4</v>
+        <v>5.5704802795930434E-4</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="4"/>
-        <v>1255.8386330105172</v>
+        <v>937.17835737525184</v>
       </c>
       <c r="J36" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="6"/>
@@ -4497,31 +4497,31 @@
       </c>
       <c r="B37" s="8">
         <f t="shared" si="2"/>
-        <v>7537.7422411559319</v>
+        <v>5570.4802795930436</v>
       </c>
       <c r="C37" s="20">
         <f t="shared" si="0"/>
-        <v>226.13226723467795</v>
+        <v>111.40960559186088</v>
       </c>
       <c r="D37" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" si="1"/>
-        <v>7763.8745083906097</v>
+        <v>5681.8898851849044</v>
       </c>
       <c r="F37" s="23">
         <f t="shared" si="3"/>
-        <v>7.7638745083906098E-4</v>
+        <v>5.6818898851849044E-4</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="4"/>
-        <v>1293.5137920008328</v>
+        <v>955.92192452275685</v>
       </c>
       <c r="J37" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K37" s="6">
         <f t="shared" si="6"/>
@@ -4534,31 +4534,31 @@
       </c>
       <c r="B38" s="8">
         <f t="shared" si="2"/>
-        <v>7763.8745083906097</v>
+        <v>5681.8898851849044</v>
       </c>
       <c r="C38" s="20">
         <f t="shared" si="0"/>
-        <v>232.91623525171829</v>
+        <v>113.63779770369808</v>
       </c>
       <c r="D38" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" si="1"/>
-        <v>7996.7907436423284</v>
+        <v>5795.5276828886026</v>
       </c>
       <c r="F38" s="23">
         <f t="shared" si="3"/>
-        <v>7.9967907436423284E-4</v>
+        <v>5.7955276828886026E-4</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="4"/>
-        <v>1332.3192057608578</v>
+        <v>975.04036301321207</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="6"/>
@@ -4571,35 +4571,35 @@
       </c>
       <c r="B39" s="8">
         <f t="shared" si="2"/>
-        <v>7996.7907436423284</v>
+        <v>5795.5276828886026</v>
       </c>
       <c r="C39" s="20">
         <f t="shared" si="0"/>
-        <v>239.90372230926985</v>
+        <v>115.91055365777206</v>
       </c>
       <c r="D39" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" si="1"/>
-        <v>8236.6944659515975</v>
+        <v>5911.4382365463744</v>
       </c>
       <c r="F39" s="23">
         <f t="shared" si="3"/>
-        <v>8.236694465951598E-4</v>
+        <v>5.9114382365463747E-4</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="4"/>
-        <v>1372.2887819336836</v>
+        <v>994.54117027347627</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4608,31 +4608,31 @@
       </c>
       <c r="B40" s="8">
         <f t="shared" si="2"/>
-        <v>8236.6944659515975</v>
+        <v>5911.4382365463744</v>
       </c>
       <c r="C40" s="20">
         <f t="shared" si="0"/>
-        <v>247.10083397854791</v>
+        <v>118.22876473092749</v>
       </c>
       <c r="D40" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E40" s="22">
         <f t="shared" si="1"/>
-        <v>8483.7952999301451</v>
+        <v>6029.667001277302</v>
       </c>
       <c r="F40" s="23">
         <f t="shared" si="3"/>
-        <v>8.4837952999301455E-4</v>
+        <v>6.0296670012773023E-4</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="4"/>
-        <v>1413.4574453916939</v>
+        <v>1014.4319936789457</v>
       </c>
       <c r="J40" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" si="6"/>
@@ -4645,35 +4645,35 @@
       </c>
       <c r="B41" s="8">
         <f t="shared" si="2"/>
-        <v>8483.7952999301451</v>
+        <v>6029.667001277302</v>
       </c>
       <c r="C41" s="20">
         <f t="shared" si="0"/>
-        <v>254.51385899790435</v>
+        <v>120.59334002554604</v>
       </c>
       <c r="D41" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E41" s="22">
         <f t="shared" si="1"/>
-        <v>8738.3091589280502</v>
+        <v>6150.2603413028482</v>
       </c>
       <c r="F41" s="23">
         <f t="shared" si="3"/>
-        <v>8.7383091589280499E-4</v>
+        <v>6.1502603413028482E-4</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="4"/>
-        <v>1455.8611687534446</v>
+        <v>1034.7206335525248</v>
       </c>
       <c r="J41" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -4682,31 +4682,31 @@
       </c>
       <c r="B42" s="8">
         <f t="shared" si="2"/>
-        <v>8738.3091589280502</v>
+        <v>6150.2603413028482</v>
       </c>
       <c r="C42" s="20">
         <f t="shared" si="0"/>
-        <v>262.14927476784152</v>
+        <v>123.00520682605696</v>
       </c>
       <c r="D42" s="21">
         <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E42" s="22">
         <f t="shared" si="1"/>
-        <v>9000.4584336958924</v>
+        <v>6273.2655481289048</v>
       </c>
       <c r="F42" s="23">
         <f t="shared" si="3"/>
-        <v>9.0004584336958926E-4</v>
+        <v>6.273265548128905E-4</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="4"/>
-        <v>1499.5370038160481</v>
+        <v>1055.4150462235752</v>
       </c>
       <c r="J42" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K42" s="6">
         <f t="shared" si="6"/>
@@ -4719,31 +4719,31 @@
       </c>
       <c r="B43" s="8">
         <f t="shared" si="2"/>
-        <v>9000.4584336958924</v>
+        <v>6273.2655481289048</v>
       </c>
       <c r="C43" s="20">
         <f t="shared" si="0"/>
-        <v>270.01375301087677</v>
+        <v>125.4653109625781</v>
       </c>
       <c r="D43" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E43" s="22">
         <f t="shared" si="1"/>
-        <v>9270.4721867067692</v>
+        <v>6398.7308590914827</v>
       </c>
       <c r="F43" s="23">
         <f t="shared" si="3"/>
-        <v>9.2704721867067691E-4</v>
+        <v>6.3987308590914829E-4</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="4"/>
-        <v>1544.5231139305297</v>
+        <v>1076.5233471480467</v>
       </c>
       <c r="J43" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" si="6"/>
@@ -4756,35 +4756,35 @@
       </c>
       <c r="B44" s="8">
         <f t="shared" si="2"/>
-        <v>9270.4721867067692</v>
+        <v>6398.7308590914827</v>
       </c>
       <c r="C44" s="20">
         <f t="shared" si="0"/>
-        <v>278.11416560120307</v>
+        <v>127.97461718182966</v>
       </c>
       <c r="D44" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E44" s="22">
         <f t="shared" si="1"/>
-        <v>9548.5863523079715</v>
+        <v>6526.7054762733123</v>
       </c>
       <c r="F44" s="23">
         <f t="shared" si="3"/>
-        <v>9.5485863523079716E-4</v>
+        <v>6.5267054762733123E-4</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="4"/>
-        <v>1590.8588073484455</v>
+        <v>1098.0538140910076</v>
       </c>
       <c r="J44" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482022</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4793,35 +4793,35 @@
       </c>
       <c r="B45" s="8">
         <f t="shared" si="2"/>
-        <v>9548.5863523079715</v>
+        <v>6526.7054762733123</v>
       </c>
       <c r="C45" s="20">
         <f t="shared" si="0"/>
-        <v>286.45759056923913</v>
+        <v>130.53410952546625</v>
       </c>
       <c r="D45" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E45" s="22">
         <f t="shared" si="1"/>
-        <v>9835.0439428772115</v>
+        <v>6657.2395857987785</v>
       </c>
       <c r="F45" s="23">
         <f t="shared" si="3"/>
-        <v>9.8350439428772124E-4</v>
+        <v>6.6572395857987781E-4</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="4"/>
-        <v>1638.584571568899</v>
+        <v>1120.0148903728277</v>
       </c>
       <c r="J45" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K45" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -4830,32 +4830,32 @@
       </c>
       <c r="B46" s="8">
         <f t="shared" si="2"/>
-        <v>9835.0439428772115</v>
+        <v>6657.2395857987785</v>
       </c>
       <c r="C46" s="20">
         <f t="shared" si="0"/>
-        <v>295.05131828631636</v>
+        <v>133.14479171597557</v>
       </c>
       <c r="D46" s="21">
         <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E46" s="22">
         <f t="shared" si="1"/>
-        <v>10130.095261163528</v>
+        <v>6790.3843775147543</v>
       </c>
       <c r="F46" s="23">
         <f t="shared" si="3"/>
-        <v>1.0130095261163528E-3</v>
+        <v>6.7903843775147545E-4</v>
       </c>
       <c r="G46" s="3"/>
       <c r="I46" s="8">
         <f t="shared" si="4"/>
-        <v>1687.7421087159657</v>
+        <v>1142.4151881802843</v>
       </c>
       <c r="J46" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489212</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K46" s="6">
         <f t="shared" si="6"/>
@@ -4868,31 +4868,31 @@
       </c>
       <c r="B47" s="8">
         <f t="shared" si="2"/>
-        <v>10130.095261163528</v>
+        <v>6790.3843775147543</v>
       </c>
       <c r="C47" s="20">
         <f t="shared" si="0"/>
-        <v>303.90285783490583</v>
+        <v>135.8076875502951</v>
       </c>
       <c r="D47" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E47" s="22">
         <f t="shared" si="1"/>
-        <v>10433.998118998434</v>
+        <v>6926.1920650650491</v>
       </c>
       <c r="F47" s="23">
         <f t="shared" si="3"/>
-        <v>1.0433998118998433E-3</v>
+        <v>6.9261920650650493E-4</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" si="4"/>
-        <v>1738.374371977445</v>
+        <v>1165.2634919438899</v>
       </c>
       <c r="J47" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K47" s="6">
         <f t="shared" si="6"/>
@@ -4905,31 +4905,31 @@
       </c>
       <c r="B48" s="8">
         <f t="shared" si="2"/>
-        <v>10433.998118998434</v>
+        <v>6926.1920650650491</v>
       </c>
       <c r="C48" s="20">
         <f t="shared" si="0"/>
-        <v>313.019943569953</v>
+        <v>138.52384130130099</v>
       </c>
       <c r="D48" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E48" s="22">
         <f t="shared" si="1"/>
-        <v>10747.018062568386</v>
+        <v>7064.7159063663503</v>
       </c>
       <c r="F48" s="23">
         <f t="shared" si="3"/>
-        <v>1.0747018062568386E-3</v>
+        <v>7.0647159063663505E-4</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" si="4"/>
-        <v>1790.525603136768</v>
+        <v>1188.5687617827678</v>
       </c>
       <c r="J48" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K48" s="6">
         <f t="shared" si="6"/>
@@ -4942,31 +4942,31 @@
       </c>
       <c r="B49" s="8">
         <f t="shared" si="2"/>
-        <v>10747.018062568386</v>
+        <v>7064.7159063663503</v>
       </c>
       <c r="C49" s="20">
         <f t="shared" si="0"/>
-        <v>322.41054187705157</v>
+        <v>141.29431812732702</v>
       </c>
       <c r="D49" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E49" s="22">
         <f t="shared" si="1"/>
-        <v>11069.428604445438</v>
+        <v>7206.010224493677</v>
       </c>
       <c r="F49" s="23">
         <f t="shared" si="3"/>
-        <v>1.1069428604445438E-3</v>
+        <v>7.2060102244936774E-4</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="4"/>
-        <v>1844.2413712308712</v>
+        <v>1212.3401370184231</v>
       </c>
       <c r="J49" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K49" s="6">
         <f t="shared" si="6"/>
@@ -4979,35 +4979,35 @@
       </c>
       <c r="B50" s="8">
         <f t="shared" si="2"/>
-        <v>11069.428604445438</v>
+        <v>7206.010224493677</v>
       </c>
       <c r="C50" s="20">
         <f t="shared" si="0"/>
-        <v>332.08285813336312</v>
+        <v>144.12020448987354</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E50" s="22">
         <f t="shared" si="1"/>
-        <v>11401.511462578801</v>
+        <v>7350.1304289835507</v>
       </c>
       <c r="F50" s="23">
         <f t="shared" si="3"/>
-        <v>1.14015114625788E-3</v>
+        <v>7.3501304289835508E-4</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" si="4"/>
-        <v>1899.5686123677976</v>
+        <v>1236.5869397587915</v>
       </c>
       <c r="J50" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -5016,35 +5016,35 @@
       </c>
       <c r="B51" s="8">
         <f t="shared" si="2"/>
-        <v>11401.511462578801</v>
+        <v>7350.1304289835507</v>
       </c>
       <c r="C51" s="20">
         <f t="shared" si="0"/>
-        <v>342.04534387736402</v>
+        <v>147.002608579671</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E51" s="22">
         <f t="shared" si="1"/>
-        <v>11743.556806456165</v>
+        <v>7497.1330375632215</v>
       </c>
       <c r="F51" s="23">
         <f t="shared" si="3"/>
-        <v>1.1743556806456164E-3</v>
+        <v>7.4971330375632212E-4</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" si="4"/>
-        <v>1956.5556707388314</v>
+        <v>1261.3186785539674</v>
       </c>
       <c r="J51" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K51" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -5053,31 +5053,31 @@
       </c>
       <c r="B52" s="8">
         <f t="shared" si="2"/>
-        <v>11743.556806456165</v>
+        <v>7497.1330375632215</v>
       </c>
       <c r="C52" s="20">
         <f t="shared" si="0"/>
-        <v>352.30670419368494</v>
+        <v>149.94266075126444</v>
       </c>
       <c r="D52" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E52" s="22">
         <f t="shared" si="1"/>
-        <v>12095.86351064985</v>
+        <v>7647.0756983144856</v>
       </c>
       <c r="F52" s="23">
         <f t="shared" si="3"/>
-        <v>1.2095863510649849E-3</v>
+        <v>7.6470756983144852E-4</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="4"/>
-        <v>2015.2523408609961</v>
+        <v>1286.5450521250466</v>
       </c>
       <c r="J52" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K52" s="6">
         <f t="shared" si="6"/>
@@ -5090,35 +5090,35 @@
       </c>
       <c r="B53" s="8">
         <f t="shared" si="2"/>
-        <v>12095.86351064985</v>
+        <v>7647.0756983144856</v>
       </c>
       <c r="C53" s="20">
         <f t="shared" si="0"/>
-        <v>362.87590531949547</v>
+        <v>152.9415139662897</v>
       </c>
       <c r="D53" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E53" s="22">
         <f t="shared" si="1"/>
-        <v>12458.739415969345</v>
+        <v>7800.0172122807753</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="3"/>
-        <v>1.2458739415969345E-3</v>
+        <v>7.8000172122807748E-4</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" si="4"/>
-        <v>2075.7099110868262</v>
+        <v>1312.2759531675474</v>
       </c>
       <c r="J53" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K53" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -5127,31 +5127,31 @@
       </c>
       <c r="B54" s="8">
         <f t="shared" si="2"/>
-        <v>12458.739415969345</v>
+        <v>7800.0172122807753</v>
       </c>
       <c r="C54" s="20">
         <f t="shared" si="0"/>
-        <v>373.76218247908031</v>
+        <v>156.00034424561551</v>
       </c>
       <c r="D54" s="21">
         <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E54" s="22">
         <f t="shared" si="1"/>
-        <v>12832.501598448425</v>
+        <v>7956.0175565263908</v>
       </c>
       <c r="F54" s="23">
         <f t="shared" si="3"/>
-        <v>1.2832501598448425E-3</v>
+        <v>7.9560175565263904E-4</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" si="4"/>
-        <v>2137.9812084194309</v>
+        <v>1338.5214722308986</v>
       </c>
       <c r="J54" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K54" s="6">
         <f t="shared" si="6"/>
@@ -5164,31 +5164,31 @@
       </c>
       <c r="B55" s="8">
         <f t="shared" si="2"/>
-        <v>12832.501598448425</v>
+        <v>7956.0175565263908</v>
       </c>
       <c r="C55" s="20">
         <f t="shared" si="0"/>
-        <v>384.97504795345276</v>
+        <v>159.12035113052781</v>
       </c>
       <c r="D55" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E55" s="22">
         <f t="shared" si="1"/>
-        <v>13217.476646401878</v>
+        <v>8115.1379076569183</v>
       </c>
       <c r="F55" s="23">
         <f t="shared" si="3"/>
-        <v>1.3217476646401878E-3</v>
+        <v>8.1151379076569179E-4</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" si="4"/>
-        <v>2202.1206446720139</v>
+        <v>1365.2919016755166</v>
       </c>
       <c r="J55" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K55" s="6">
         <f t="shared" si="6"/>
@@ -5201,31 +5201,31 @@
       </c>
       <c r="B56" s="8">
         <f t="shared" si="2"/>
-        <v>13217.476646401878</v>
+        <v>8115.1379076569183</v>
       </c>
       <c r="C56" s="20">
         <f t="shared" si="0"/>
-        <v>396.52429939205632</v>
+        <v>162.30275815313837</v>
       </c>
       <c r="D56" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E56" s="22">
         <f t="shared" si="1"/>
-        <v>13614.000945793934</v>
+        <v>8277.4406658100561</v>
       </c>
       <c r="F56" s="23">
         <f t="shared" si="3"/>
-        <v>1.3614000945793934E-3</v>
+        <v>8.2774406658100562E-4</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" si="4"/>
-        <v>2268.184264012174</v>
+        <v>1392.5977397090267</v>
       </c>
       <c r="J56" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K56" s="6">
         <f t="shared" si="6"/>
@@ -5238,35 +5238,35 @@
       </c>
       <c r="B57" s="8">
         <f t="shared" si="2"/>
-        <v>13614.000945793934</v>
+        <v>8277.4406658100561</v>
       </c>
       <c r="C57" s="20">
         <f t="shared" si="0"/>
-        <v>408.42002837381801</v>
+        <v>165.54881331620112</v>
       </c>
       <c r="D57" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E57" s="22">
         <f t="shared" si="1"/>
-        <v>14022.420974167751</v>
+        <v>8442.9894791262577</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="3"/>
-        <v>1.4022420974167751E-3</v>
+        <v>8.4429894791262573E-4</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" si="4"/>
-        <v>2336.2297919325397</v>
+        <v>1420.4496945032072</v>
       </c>
       <c r="J57" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K57" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -5275,31 +5275,31 @@
       </c>
       <c r="B58" s="8">
         <f t="shared" si="2"/>
-        <v>14022.420974167751</v>
+        <v>8442.9894791262577</v>
       </c>
       <c r="C58" s="20">
         <f t="shared" si="0"/>
-        <v>420.67262922503255</v>
+        <v>168.85978958252517</v>
       </c>
       <c r="D58" s="21">
         <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E58" s="22">
         <f t="shared" si="1"/>
-        <v>14443.093603392785</v>
+        <v>8611.8492687087837</v>
       </c>
       <c r="F58" s="23">
         <f t="shared" si="3"/>
-        <v>1.4443093603392786E-3</v>
+        <v>8.6118492687087842E-4</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" si="4"/>
-        <v>2406.3166856905154</v>
+        <v>1448.8586883932714</v>
       </c>
       <c r="J58" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K58" s="6">
         <f t="shared" si="6"/>
@@ -5312,31 +5312,31 @@
       </c>
       <c r="B59" s="8">
         <f t="shared" si="2"/>
-        <v>14443.093603392785</v>
+        <v>8611.8492687087837</v>
       </c>
       <c r="C59" s="20">
         <f t="shared" si="0"/>
-        <v>433.29280810178352</v>
+        <v>172.23698537417567</v>
       </c>
       <c r="D59" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E59" s="22">
         <f t="shared" si="1"/>
-        <v>14876.386411494568</v>
+        <v>8784.0862540829585</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="3"/>
-        <v>1.4876386411494568E-3</v>
+        <v>8.784086254082958E-4</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" si="4"/>
-        <v>2478.5061862612311</v>
+        <v>1477.8358621611369</v>
       </c>
       <c r="J59" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K59" s="6">
         <f t="shared" si="6"/>
@@ -5349,35 +5349,35 @@
       </c>
       <c r="B60" s="8">
         <f t="shared" si="2"/>
-        <v>14876.386411494568</v>
+        <v>8784.0862540829585</v>
       </c>
       <c r="C60" s="20">
         <f t="shared" si="0"/>
-        <v>446.29159234483706</v>
+        <v>175.68172508165918</v>
       </c>
       <c r="D60" s="21">
         <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E60" s="22">
         <f t="shared" si="1"/>
-        <v>15322.678003839404</v>
+        <v>8959.7679791646169</v>
       </c>
       <c r="F60" s="23">
         <f t="shared" si="3"/>
-        <v>1.5322678003839405E-3</v>
+        <v>8.9597679791646168E-4</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" si="4"/>
-        <v>2552.8613718490678</v>
+        <v>1507.3925794043596</v>
       </c>
       <c r="J60" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K60" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -5386,35 +5386,35 @@
       </c>
       <c r="B61" s="8">
         <f t="shared" si="2"/>
-        <v>15322.678003839404</v>
+        <v>8959.7679791646169</v>
       </c>
       <c r="C61" s="20">
         <f t="shared" si="0"/>
-        <v>459.6803401151821</v>
+        <v>179.19535958329234</v>
       </c>
       <c r="D61" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E61" s="22">
         <f t="shared" si="1"/>
-        <v>15782.358343954587</v>
+        <v>9138.9633387479098</v>
       </c>
       <c r="F61" s="23">
         <f t="shared" si="3"/>
-        <v>1.5782358343954586E-3</v>
+        <v>9.1389633387479097E-4</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" si="4"/>
-        <v>2629.4472130045397</v>
+        <v>1537.5404309924468</v>
       </c>
       <c r="J61" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K61" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -5423,31 +5423,31 @@
       </c>
       <c r="B62" s="8">
         <f t="shared" si="2"/>
-        <v>15782.358343954587</v>
+        <v>9138.9633387479098</v>
       </c>
       <c r="C62" s="20">
         <f t="shared" si="0"/>
-        <v>473.47075031863761</v>
+        <v>182.77926677495819</v>
       </c>
       <c r="D62" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E62" s="22">
         <f t="shared" si="1"/>
-        <v>16255.829094273226</v>
+        <v>9321.742605522868</v>
       </c>
       <c r="F62" s="23">
         <f t="shared" si="3"/>
-        <v>1.6255829094273225E-3</v>
+        <v>9.321742605522868E-4</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" si="4"/>
-        <v>2708.3306293946762</v>
+        <v>1568.2912396122956</v>
       </c>
       <c r="J62" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="6"/>
@@ -5460,35 +5460,35 @@
       </c>
       <c r="B63" s="8">
         <f t="shared" si="2"/>
-        <v>16255.829094273226</v>
+        <v>9321.742605522868</v>
       </c>
       <c r="C63" s="20">
         <f t="shared" si="0"/>
-        <v>487.67487282819673</v>
+        <v>186.43485211045737</v>
       </c>
       <c r="D63" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E63" s="22">
         <f t="shared" si="1"/>
-        <v>16743.503967101424</v>
+        <v>9508.1774576333246</v>
       </c>
       <c r="F63" s="23">
         <f t="shared" si="3"/>
-        <v>1.6743503967101424E-3</v>
+        <v>9.5081774576333245E-4</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" si="4"/>
-        <v>2789.5805482765163</v>
+        <v>1599.6570644045416</v>
       </c>
       <c r="J63" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K63" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -5497,31 +5497,31 @@
       </c>
       <c r="B64" s="8">
         <f t="shared" si="2"/>
-        <v>16743.503967101424</v>
+        <v>9508.1774576333246</v>
       </c>
       <c r="C64" s="20">
         <f t="shared" si="0"/>
-        <v>502.30511901304271</v>
+        <v>190.16354915266649</v>
       </c>
       <c r="D64" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E64" s="22">
         <f t="shared" si="1"/>
-        <v>17245.809086114466</v>
+        <v>9698.3410067859913</v>
       </c>
       <c r="F64" s="23">
         <f t="shared" si="3"/>
-        <v>1.7245809086114466E-3</v>
+        <v>9.6983410067859918E-4</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" si="4"/>
-        <v>2873.2679647248124</v>
+        <v>1631.6502056926324</v>
       </c>
       <c r="J64" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K64" s="6">
         <f t="shared" si="6"/>
@@ -5534,31 +5534,31 @@
       </c>
       <c r="B65" s="8">
         <f t="shared" si="2"/>
-        <v>17245.809086114466</v>
+        <v>9698.3410067859913</v>
       </c>
       <c r="C65" s="20">
         <f t="shared" si="0"/>
-        <v>517.37427258343394</v>
+        <v>193.96682013571984</v>
       </c>
       <c r="D65" s="21">
         <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E65" s="22">
         <f t="shared" si="1"/>
-        <v>17763.183358697901</v>
+        <v>9892.3078269217112</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="3"/>
-        <v>1.7763183358697901E-3</v>
+        <v>9.8923078269217107E-4</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" si="4"/>
-        <v>2959.4660036665568</v>
+        <v>1664.2832098064848</v>
       </c>
       <c r="J65" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K65" s="6">
         <f t="shared" si="6"/>
@@ -5571,31 +5571,31 @@
       </c>
       <c r="B66" s="8">
         <f t="shared" si="2"/>
-        <v>17763.183358697901</v>
+        <v>9892.3078269217112</v>
       </c>
       <c r="C66" s="20">
         <f t="shared" si="0"/>
-        <v>532.89550076093701</v>
+        <v>197.84615653843423</v>
       </c>
       <c r="D66" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E66" s="22">
         <f t="shared" si="1"/>
-        <v>18296.078859458838</v>
+        <v>10090.153983460146</v>
       </c>
       <c r="F66" s="23">
         <f t="shared" si="3"/>
-        <v>1.8296078859458837E-3</v>
+        <v>1.0090153983460146E-3</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" si="4"/>
-        <v>3048.2499837765536</v>
+        <v>1697.5688740026146</v>
       </c>
       <c r="J66" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K66" s="6">
         <f t="shared" si="6"/>
@@ -5608,35 +5608,35 @@
       </c>
       <c r="B67" s="8">
         <f t="shared" si="2"/>
-        <v>18296.078859458838</v>
+        <v>10090.153983460146</v>
       </c>
       <c r="C67" s="20">
         <f t="shared" si="0"/>
-        <v>548.88236578376507</v>
+        <v>201.80307966920293</v>
       </c>
       <c r="D67" s="21">
         <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E67" s="22">
         <f t="shared" si="1"/>
-        <v>18844.961225242601</v>
+        <v>10291.95706312935</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" si="3"/>
-        <v>1.8844961225242601E-3</v>
+        <v>1.0291957063129349E-3</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" si="4"/>
-        <v>3139.69748328985</v>
+        <v>1731.5202514826674</v>
       </c>
       <c r="J67" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992804</v>
       </c>
       <c r="K67" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -5645,31 +5645,31 @@
       </c>
       <c r="B68" s="8">
         <f t="shared" si="2"/>
-        <v>18844.961225242601</v>
+        <v>10291.95706312935</v>
       </c>
       <c r="C68" s="20">
         <f t="shared" si="0"/>
-        <v>565.34883675727804</v>
+        <v>205.83914126258699</v>
       </c>
       <c r="D68" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E68" s="22">
         <f t="shared" si="1"/>
-        <v>19410.31006199988</v>
+        <v>10497.796204391938</v>
       </c>
       <c r="F68" s="23">
         <f t="shared" si="3"/>
-        <v>1.941031006199988E-3</v>
+        <v>1.0497796204391938E-3</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" si="4"/>
-        <v>3233.888407788545</v>
+        <v>1766.1506565123204</v>
       </c>
       <c r="J68" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K68" s="6">
         <f t="shared" si="6"/>
@@ -5682,35 +5682,35 @@
       </c>
       <c r="B69" s="8">
         <f t="shared" si="2"/>
-        <v>19410.31006199988</v>
+        <v>10497.796204391938</v>
       </c>
       <c r="C69" s="20">
         <f t="shared" si="0"/>
-        <v>582.30930185999637</v>
+        <v>209.95592408783875</v>
       </c>
       <c r="D69" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E69" s="22">
         <f t="shared" si="1"/>
-        <v>19992.619363859878</v>
+        <v>10707.752128479777</v>
       </c>
       <c r="F69" s="23">
         <f t="shared" si="3"/>
-        <v>1.9992619363859879E-3</v>
+        <v>1.0707752128479777E-3</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" si="4"/>
-        <v>3330.9050600222022</v>
+        <v>1801.4736696425671</v>
       </c>
       <c r="J69" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K69" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -5719,35 +5719,35 @@
       </c>
       <c r="B70" s="8">
         <f t="shared" si="2"/>
-        <v>19992.619363859878</v>
+        <v>10707.752128479777</v>
       </c>
       <c r="C70" s="20">
         <f t="shared" si="0"/>
-        <v>599.77858091579628</v>
+        <v>214.15504256959554</v>
       </c>
       <c r="D70" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E70" s="22">
         <f t="shared" ref="E70:E115" si="8">B70+C70</f>
-        <v>20592.397944775676</v>
+        <v>10921.907171049372</v>
       </c>
       <c r="F70" s="23">
         <f t="shared" si="3"/>
-        <v>2.0592397944775675E-3</v>
+        <v>1.0921907171049371E-3</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" si="4"/>
-        <v>3430.832211822868</v>
+        <v>1837.5031430354186</v>
       </c>
       <c r="J70" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K70" s="6">
         <f t="shared" si="6"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -5756,31 +5756,31 @@
       </c>
       <c r="B71" s="8">
         <f t="shared" si="2"/>
-        <v>20592.397944775676</v>
+        <v>10921.907171049372</v>
       </c>
       <c r="C71" s="20">
         <f t="shared" si="0"/>
-        <v>617.77193834327022</v>
+        <v>218.43814342098744</v>
       </c>
       <c r="D71" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E71" s="22">
         <f t="shared" si="8"/>
-        <v>21210.169883118946</v>
+        <v>11140.34531447036</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="3"/>
-        <v>2.1210169883118944E-3</v>
+        <v>1.114034531447036E-3</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" si="4"/>
-        <v>3533.7571781775541</v>
+        <v>1874.2532058961267</v>
       </c>
       <c r="J71" s="20">
         <f t="shared" si="5"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K71" s="6">
         <f t="shared" si="6"/>
@@ -5793,35 +5793,35 @@
       </c>
       <c r="B72" s="8">
         <f t="shared" ref="B72:B115" si="9">E71</f>
-        <v>21210.169883118946</v>
+        <v>11140.34531447036</v>
       </c>
       <c r="C72" s="20">
         <f t="shared" ref="C72:C115" si="10">B72*$C$3</f>
-        <v>636.30509649356839</v>
+        <v>222.80690628940721</v>
       </c>
       <c r="D72" s="21">
         <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E72" s="22">
         <f t="shared" si="8"/>
-        <v>21846.474979612514</v>
+        <v>11363.152220759766</v>
       </c>
       <c r="F72" s="23">
         <f t="shared" ref="F72:F115" si="11">E72/10000000</f>
-        <v>2.1846474979612513E-3</v>
+        <v>1.1363152220759767E-3</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" ref="I72:I135" si="12">B72*$J$2/$J$3</f>
-        <v>3639.7698935228809</v>
+        <v>1911.7382700140495</v>
       </c>
       <c r="J72" s="20">
         <f t="shared" ref="J72:J135" si="13">C72/I72</f>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K72" s="6">
         <f t="shared" ref="K72:K135" si="14">(B72*0.05)/I72</f>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -5830,31 +5830,31 @@
       </c>
       <c r="B73" s="8">
         <f t="shared" si="9"/>
-        <v>21846.474979612514</v>
+        <v>11363.152220759766</v>
       </c>
       <c r="C73" s="20">
         <f t="shared" si="10"/>
-        <v>655.39424938837544</v>
+        <v>227.26304441519534</v>
       </c>
       <c r="D73" s="21">
         <f t="shared" ref="D73:D115" si="15">C73/B73</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E73" s="22">
         <f t="shared" si="8"/>
-        <v>22501.869229000891</v>
+        <v>11590.415265174961</v>
       </c>
       <c r="F73" s="23">
         <f t="shared" si="11"/>
-        <v>2.2501869229000892E-3</v>
+        <v>1.159041526517496E-3</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" si="12"/>
-        <v>3748.9629903285677</v>
+        <v>1949.9730354143303</v>
       </c>
       <c r="J73" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K73" s="6">
         <f t="shared" si="14"/>
@@ -5867,31 +5867,31 @@
       </c>
       <c r="B74" s="8">
         <f t="shared" si="9"/>
-        <v>22501.869229000891</v>
+        <v>11590.415265174961</v>
       </c>
       <c r="C74" s="20">
         <f t="shared" si="10"/>
-        <v>675.05607687002669</v>
+        <v>231.80830530349922</v>
       </c>
       <c r="D74" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E74" s="22">
         <f t="shared" si="8"/>
-        <v>23176.925305870918</v>
+        <v>11822.22357047846</v>
       </c>
       <c r="F74" s="23">
         <f t="shared" si="11"/>
-        <v>2.3176925305870917E-3</v>
+        <v>1.1822223570478461E-3</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" si="12"/>
-        <v>3861.4318800384249</v>
+        <v>1988.972496122617</v>
       </c>
       <c r="J74" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K74" s="6">
         <f t="shared" si="14"/>
@@ -5904,35 +5904,35 @@
       </c>
       <c r="B75" s="8">
         <f t="shared" si="9"/>
-        <v>23176.925305870918</v>
+        <v>11822.22357047846</v>
       </c>
       <c r="C75" s="20">
         <f t="shared" si="10"/>
-        <v>695.30775917612755</v>
+        <v>236.44447140956919</v>
       </c>
       <c r="D75" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E75" s="22">
         <f t="shared" si="8"/>
-        <v>23872.233065047047</v>
+        <v>12058.66804188803</v>
       </c>
       <c r="F75" s="23">
         <f t="shared" si="11"/>
-        <v>2.3872233065047048E-3</v>
+        <v>1.2058668041888029E-3</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" si="12"/>
-        <v>3977.2748364395775</v>
+        <v>2028.7519460450692</v>
       </c>
       <c r="J75" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K75" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -5941,35 +5941,35 @@
       </c>
       <c r="B76" s="8">
         <f t="shared" si="9"/>
-        <v>23872.233065047047</v>
+        <v>12058.66804188803</v>
       </c>
       <c r="C76" s="20">
         <f t="shared" si="10"/>
-        <v>716.16699195141132</v>
+        <v>241.17336083776058</v>
       </c>
       <c r="D76" s="21">
         <f t="shared" si="15"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E76" s="22">
         <f t="shared" si="8"/>
-        <v>24588.400056998456</v>
+        <v>12299.84140272579</v>
       </c>
       <c r="F76" s="23">
         <f t="shared" si="11"/>
-        <v>2.4588400056998454E-3</v>
+        <v>1.2299841402725789E-3</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" si="12"/>
-        <v>4096.5930815327647</v>
+        <v>2069.3269849659705</v>
       </c>
       <c r="J76" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K76" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -5978,35 +5978,35 @@
       </c>
       <c r="B77" s="8">
         <f t="shared" si="9"/>
-        <v>24588.400056998456</v>
+        <v>12299.84140272579</v>
       </c>
       <c r="C77" s="20">
         <f t="shared" si="10"/>
-        <v>737.65200170995365</v>
+        <v>245.99682805451579</v>
       </c>
       <c r="D77" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E77" s="22">
         <f t="shared" si="8"/>
-        <v>25326.05205870841</v>
+        <v>12545.838230780306</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" si="11"/>
-        <v>2.532605205870841E-3</v>
+        <v>1.2545838230780305E-3</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" si="12"/>
-        <v>4219.4908739787479</v>
+        <v>2110.7135246652897</v>
       </c>
       <c r="J77" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K77" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -6015,35 +6015,35 @@
       </c>
       <c r="B78" s="8">
         <f t="shared" si="9"/>
-        <v>25326.05205870841</v>
+        <v>12545.838230780306</v>
       </c>
       <c r="C78" s="20">
         <f t="shared" si="10"/>
-        <v>759.78156176125231</v>
+        <v>250.91676461560613</v>
       </c>
       <c r="D78" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E78" s="22">
         <f t="shared" si="8"/>
-        <v>26085.833620469661</v>
+        <v>12796.754995395911</v>
       </c>
       <c r="F78" s="23">
         <f t="shared" si="11"/>
-        <v>2.608583362046966E-3</v>
+        <v>1.2796754995395912E-3</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" si="12"/>
-        <v>4346.0756001981099</v>
+        <v>2152.9277951585955</v>
       </c>
       <c r="J78" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K78" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482022</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -6052,35 +6052,35 @@
       </c>
       <c r="B79" s="8">
         <f t="shared" si="9"/>
-        <v>26085.833620469661</v>
+        <v>12796.754995395911</v>
       </c>
       <c r="C79" s="20">
         <f t="shared" si="10"/>
-        <v>782.57500861408982</v>
+        <v>255.93509990791824</v>
       </c>
       <c r="D79" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E79" s="22">
         <f t="shared" si="8"/>
-        <v>26868.408629083751</v>
+        <v>13052.690095303829</v>
       </c>
       <c r="F79" s="23">
         <f t="shared" si="11"/>
-        <v>2.6868408629083752E-3</v>
+        <v>1.305269009530383E-3</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" si="12"/>
-        <v>4476.4578682040528</v>
+        <v>2195.9863510617674</v>
       </c>
       <c r="J79" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K79" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482022</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -6089,31 +6089,31 @@
       </c>
       <c r="B80" s="8">
         <f t="shared" si="9"/>
-        <v>26868.408629083751</v>
+        <v>13052.690095303829</v>
       </c>
       <c r="C80" s="20">
         <f t="shared" si="10"/>
-        <v>806.05225887251254</v>
+        <v>261.05380190607661</v>
       </c>
       <c r="D80" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E80" s="22">
         <f t="shared" si="8"/>
-        <v>27674.460887956266</v>
+        <v>13313.743897209906</v>
       </c>
       <c r="F80" s="23">
         <f t="shared" si="11"/>
-        <v>2.7674460887956265E-3</v>
+        <v>1.3313743897209907E-3</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" si="12"/>
-        <v>4610.7516042501748</v>
+        <v>2239.9060780830032</v>
       </c>
       <c r="J80" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K80" s="6">
         <f t="shared" si="14"/>
@@ -6126,35 +6126,35 @@
       </c>
       <c r="B81" s="8">
         <f t="shared" si="9"/>
-        <v>27674.460887956266</v>
+        <v>13313.743897209906</v>
       </c>
       <c r="C81" s="20">
         <f t="shared" si="10"/>
-        <v>830.2338266386879</v>
+        <v>266.27487794419812</v>
       </c>
       <c r="D81" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E81" s="22">
         <f t="shared" si="8"/>
-        <v>28504.694714594953</v>
+        <v>13580.018775154105</v>
       </c>
       <c r="F81" s="23">
         <f t="shared" si="11"/>
-        <v>2.8504694714594951E-3</v>
+        <v>1.3580018775154106E-3</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" si="12"/>
-        <v>4749.0741523776805</v>
+        <v>2284.7041996446628</v>
       </c>
       <c r="J81" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -6163,31 +6163,31 @@
       </c>
       <c r="B82" s="8">
         <f t="shared" si="9"/>
-        <v>28504.694714594953</v>
+        <v>13580.018775154105</v>
       </c>
       <c r="C82" s="20">
         <f t="shared" si="10"/>
-        <v>855.14084143784851</v>
+        <v>271.60037550308209</v>
       </c>
       <c r="D82" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E82" s="22">
         <f t="shared" si="8"/>
-        <v>29359.835556032802</v>
+        <v>13851.619150657187</v>
       </c>
       <c r="F82" s="23">
         <f t="shared" si="11"/>
-        <v>2.93598355560328E-3</v>
+        <v>1.3851619150657187E-3</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" si="12"/>
-        <v>4891.5463769490098</v>
+        <v>2330.3982836375562</v>
       </c>
       <c r="J82" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K82" s="6">
         <f t="shared" si="14"/>
@@ -6200,31 +6200,31 @@
       </c>
       <c r="B83" s="8">
         <f t="shared" si="9"/>
-        <v>29359.835556032802</v>
+        <v>13851.619150657187</v>
       </c>
       <c r="C83" s="20">
         <f t="shared" si="10"/>
-        <v>880.79506668098406</v>
+        <v>277.03238301314371</v>
       </c>
       <c r="D83" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="E83" s="22">
         <f t="shared" si="8"/>
-        <v>30240.630622713787</v>
+        <v>14128.651533670331</v>
       </c>
       <c r="F83" s="23">
         <f t="shared" si="11"/>
-        <v>3.0240630622713786E-3</v>
+        <v>1.412865153367033E-3</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" si="12"/>
-        <v>5038.2927682574809</v>
+        <v>2377.0062493103073</v>
       </c>
       <c r="J83" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K83" s="6">
         <f t="shared" si="14"/>
@@ -6237,31 +6237,31 @@
       </c>
       <c r="B84" s="8">
         <f t="shared" si="9"/>
-        <v>30240.630622713787</v>
+        <v>14128.651533670331</v>
       </c>
       <c r="C84" s="20">
         <f t="shared" si="10"/>
-        <v>907.21891868141358</v>
+        <v>282.57303067340661</v>
       </c>
       <c r="D84" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E84" s="22">
         <f t="shared" si="8"/>
-        <v>31147.849541395201</v>
+        <v>14411.224564343736</v>
       </c>
       <c r="F84" s="23">
         <f t="shared" si="11"/>
-        <v>3.1147849541395202E-3</v>
+        <v>1.4411224564343736E-3</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" si="12"/>
-        <v>5189.4415513052054</v>
+        <v>2424.5463742965135</v>
       </c>
       <c r="J84" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K84" s="6">
         <f t="shared" si="14"/>
@@ -6274,31 +6274,31 @@
       </c>
       <c r="B85" s="8">
         <f t="shared" si="9"/>
-        <v>31147.849541395201</v>
+        <v>14411.224564343736</v>
       </c>
       <c r="C85" s="20">
         <f t="shared" si="10"/>
-        <v>934.43548624185598</v>
+        <v>288.22449128687475</v>
       </c>
       <c r="D85" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E85" s="22">
         <f t="shared" si="8"/>
-        <v>32082.285027637055</v>
+        <v>14699.449055630612</v>
       </c>
       <c r="F85" s="23">
         <f t="shared" si="11"/>
-        <v>3.2082285027637057E-3</v>
+        <v>1.4699449055630611E-3</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" si="12"/>
-        <v>5345.1247978443616</v>
+        <v>2473.0373017824436</v>
       </c>
       <c r="J85" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K85" s="6">
         <f t="shared" si="14"/>
@@ -6311,31 +6311,31 @@
       </c>
       <c r="B86" s="8">
         <f t="shared" si="9"/>
-        <v>32082.285027637055</v>
+        <v>14699.449055630612</v>
       </c>
       <c r="C86" s="20">
         <f t="shared" si="10"/>
-        <v>962.46855082911168</v>
+        <v>293.98898111261224</v>
       </c>
       <c r="D86" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E86" s="22">
         <f t="shared" si="8"/>
-        <v>33044.753578466167</v>
+        <v>14993.438036743224</v>
       </c>
       <c r="F86" s="23">
         <f t="shared" si="11"/>
-        <v>3.3044753578466168E-3</v>
+        <v>1.4993438036743224E-3</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" si="12"/>
-        <v>5505.4785417796929</v>
+        <v>2522.4980478180928</v>
       </c>
       <c r="J86" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K86" s="6">
         <f t="shared" si="14"/>
@@ -6348,31 +6348,31 @@
       </c>
       <c r="B87" s="8">
         <f t="shared" si="9"/>
-        <v>33044.753578466167</v>
+        <v>14993.438036743224</v>
       </c>
       <c r="C87" s="20">
         <f t="shared" si="10"/>
-        <v>991.34260735398493</v>
+        <v>299.86876073486451</v>
       </c>
       <c r="D87" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E87" s="22">
         <f t="shared" si="8"/>
-        <v>34036.096185820148</v>
+        <v>15293.306797478088</v>
       </c>
       <c r="F87" s="23">
         <f t="shared" si="11"/>
-        <v>3.4036096185820148E-3</v>
+        <v>1.5293306797478088E-3</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" si="12"/>
-        <v>5670.6428980330829</v>
+        <v>2572.9480087744546</v>
       </c>
       <c r="J87" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K87" s="6">
         <f t="shared" si="14"/>
@@ -6385,31 +6385,31 @@
       </c>
       <c r="B88" s="8">
         <f t="shared" si="9"/>
-        <v>34036.096185820148</v>
+        <v>15293.306797478088</v>
       </c>
       <c r="C88" s="20">
         <f t="shared" si="10"/>
-        <v>1021.0828855746045</v>
+        <v>305.86613594956174</v>
       </c>
       <c r="D88" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="E88" s="22">
         <f t="shared" si="8"/>
-        <v>35057.179071394756</v>
+        <v>15599.17293342765</v>
       </c>
       <c r="F88" s="23">
         <f t="shared" si="11"/>
-        <v>3.5057179071394757E-3</v>
+        <v>1.5599172933427649E-3</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" si="12"/>
-        <v>5840.7621849740754</v>
+        <v>2624.4069689499438</v>
       </c>
       <c r="J88" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992804</v>
       </c>
       <c r="K88" s="6">
         <f t="shared" si="14"/>
@@ -6422,31 +6422,31 @@
       </c>
       <c r="B89" s="8">
         <f t="shared" si="9"/>
-        <v>35057.179071394756</v>
+        <v>15599.17293342765</v>
       </c>
       <c r="C89" s="20">
         <f t="shared" si="10"/>
-        <v>1051.7153721418426</v>
+        <v>311.983458668553</v>
       </c>
       <c r="D89" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E89" s="22">
         <f t="shared" si="8"/>
-        <v>36108.894443536599</v>
+        <v>15911.156392096203</v>
       </c>
       <c r="F89" s="23">
         <f t="shared" si="11"/>
-        <v>3.6108894443536601E-3</v>
+        <v>1.5911156392096203E-3</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" si="12"/>
-        <v>6015.985050523298</v>
+        <v>2676.8951083289426</v>
       </c>
       <c r="J89" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K89" s="6">
         <f t="shared" si="14"/>
@@ -6459,31 +6459,31 @@
       </c>
       <c r="B90" s="8">
         <f t="shared" si="9"/>
-        <v>36108.894443536599</v>
+        <v>15911.156392096203</v>
       </c>
       <c r="C90" s="20">
         <f t="shared" si="10"/>
-        <v>1083.2668333060979</v>
+        <v>318.22312784192405</v>
       </c>
       <c r="D90" s="21">
         <f t="shared" si="15"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E90" s="22">
         <f t="shared" si="8"/>
-        <v>37192.1612768427</v>
+        <v>16229.379519938127</v>
       </c>
       <c r="F90" s="23">
         <f t="shared" si="11"/>
-        <v>3.7192161276842699E-3</v>
+        <v>1.6229379519938129E-3</v>
       </c>
       <c r="I90" s="8">
         <f t="shared" si="12"/>
-        <v>6196.4646020389964</v>
+        <v>2730.4330104955216</v>
       </c>
       <c r="J90" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K90" s="6">
         <f t="shared" si="14"/>
@@ -6496,31 +6496,31 @@
       </c>
       <c r="B91" s="8">
         <f t="shared" si="9"/>
-        <v>37192.1612768427</v>
+        <v>16229.379519938127</v>
       </c>
       <c r="C91" s="20">
         <f t="shared" si="10"/>
-        <v>1115.764838305281</v>
+        <v>324.58759039876253</v>
       </c>
       <c r="D91" s="21">
         <f t="shared" si="15"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E91" s="22">
         <f t="shared" si="8"/>
-        <v>38307.92611514798</v>
+        <v>16553.967110336889</v>
       </c>
       <c r="F91" s="23">
         <f t="shared" si="11"/>
-        <v>3.830792611514798E-3</v>
+        <v>1.6553967110336889E-3</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" si="12"/>
-        <v>6382.3585401001674</v>
+        <v>2785.0416707054319</v>
       </c>
       <c r="J91" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K91" s="6">
         <f t="shared" si="14"/>
@@ -6533,31 +6533,31 @@
       </c>
       <c r="B92" s="8">
         <f t="shared" si="9"/>
-        <v>38307.92611514798</v>
+        <v>16553.967110336889</v>
       </c>
       <c r="C92" s="20">
         <f t="shared" si="10"/>
-        <v>1149.2377834544393</v>
+        <v>331.07934220673781</v>
       </c>
       <c r="D92" s="21">
         <f t="shared" si="15"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E92" s="22">
         <f t="shared" si="8"/>
-        <v>39457.163898602419</v>
+        <v>16885.046452543625</v>
       </c>
       <c r="F92" s="23">
         <f t="shared" si="11"/>
-        <v>3.9457163898602423E-3</v>
+        <v>1.6885046452543625E-3</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" si="12"/>
-        <v>6573.8292963031727</v>
+        <v>2840.7425041195402</v>
       </c>
       <c r="J92" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K92" s="6">
         <f t="shared" si="14"/>
@@ -6570,31 +6570,31 @@
       </c>
       <c r="B93" s="8">
         <f t="shared" si="9"/>
-        <v>39457.163898602419</v>
+        <v>16885.046452543625</v>
       </c>
       <c r="C93" s="20">
         <f t="shared" si="10"/>
-        <v>1183.7149169580725</v>
+        <v>337.7009290508725</v>
       </c>
       <c r="D93" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E93" s="22">
         <f t="shared" si="8"/>
-        <v>40640.878815560493</v>
+        <v>17222.747381594498</v>
       </c>
       <c r="F93" s="23">
         <f t="shared" si="11"/>
-        <v>4.0640878815560496E-3</v>
+        <v>1.7222747381594498E-3</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" si="12"/>
-        <v>6771.0441751922672</v>
+        <v>2897.557354201931</v>
       </c>
       <c r="J93" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K93" s="6">
         <f t="shared" si="14"/>
@@ -6607,31 +6607,31 @@
       </c>
       <c r="B94" s="8">
         <f t="shared" si="9"/>
-        <v>40640.878815560493</v>
+        <v>17222.747381594498</v>
       </c>
       <c r="C94" s="20">
         <f t="shared" si="10"/>
-        <v>1219.2263644668146</v>
+        <v>344.45494763188998</v>
       </c>
       <c r="D94" s="21">
         <f t="shared" si="15"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="22">
         <f t="shared" si="8"/>
-        <v>41860.105180027305</v>
+        <v>17567.202329226388</v>
       </c>
       <c r="F94" s="23">
         <f t="shared" si="11"/>
-        <v>4.1860105180027305E-3</v>
+        <v>1.7567202329226387E-3</v>
       </c>
       <c r="I94" s="8">
         <f t="shared" si="12"/>
-        <v>6974.1755004480356</v>
+        <v>2955.5085012859695</v>
       </c>
       <c r="J94" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K94" s="6">
         <f t="shared" si="14"/>
@@ -6644,31 +6644,31 @@
       </c>
       <c r="B95" s="8">
         <f t="shared" si="9"/>
-        <v>41860.105180027305</v>
+        <v>17567.202329226388</v>
       </c>
       <c r="C95" s="20">
         <f t="shared" si="10"/>
-        <v>1255.8031554008192</v>
+        <v>351.34404658452775</v>
       </c>
       <c r="D95" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E95" s="22">
         <f t="shared" si="8"/>
-        <v>43115.908335428125</v>
+        <v>17918.546375810914</v>
       </c>
       <c r="F95" s="23">
         <f t="shared" si="11"/>
-        <v>4.3115908335428126E-3</v>
+        <v>1.7918546375810915E-3</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" si="12"/>
-        <v>7183.4007654614761</v>
+        <v>3014.618671311689</v>
       </c>
       <c r="J95" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K95" s="6">
         <f t="shared" si="14"/>
@@ -6681,31 +6681,31 @@
       </c>
       <c r="B96" s="8">
         <f t="shared" si="9"/>
-        <v>43115.908335428125</v>
+        <v>17918.546375810914</v>
       </c>
       <c r="C96" s="20">
         <f t="shared" si="10"/>
-        <v>1293.4772500628437</v>
+        <v>358.37092751621827</v>
       </c>
       <c r="D96" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E96" s="22">
         <f t="shared" si="8"/>
-        <v>44409.385585490971</v>
+        <v>18276.917303327133</v>
       </c>
       <c r="F96" s="23">
         <f t="shared" si="11"/>
-        <v>4.4409385585490969E-3</v>
+        <v>1.8276917303327134E-3</v>
       </c>
       <c r="I96" s="8">
         <f t="shared" si="12"/>
-        <v>7398.9027884253201</v>
+        <v>3074.9110447379226</v>
       </c>
       <c r="J96" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K96" s="6">
         <f t="shared" si="14"/>
@@ -6718,35 +6718,35 @@
       </c>
       <c r="B97" s="8">
         <f t="shared" si="9"/>
-        <v>44409.385585490971</v>
+        <v>18276.917303327133</v>
       </c>
       <c r="C97" s="20">
         <f t="shared" si="10"/>
-        <v>1332.2815675647291</v>
+        <v>365.53834606654266</v>
       </c>
       <c r="D97" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E97" s="22">
         <f t="shared" si="8"/>
-        <v>45741.6671530557</v>
+        <v>18642.455649393676</v>
       </c>
       <c r="F97" s="23">
         <f t="shared" si="11"/>
-        <v>4.5741667153055702E-3</v>
+        <v>1.8642455649393677E-3</v>
       </c>
       <c r="I97" s="8">
         <f t="shared" si="12"/>
-        <v>7620.8698720780812</v>
+        <v>3136.4092656326807</v>
       </c>
       <c r="J97" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K97" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -6755,31 +6755,31 @@
       </c>
       <c r="B98" s="8">
         <f t="shared" si="9"/>
-        <v>45741.6671530557</v>
+        <v>18642.455649393676</v>
       </c>
       <c r="C98" s="20">
         <f t="shared" si="10"/>
-        <v>1372.2500145916708</v>
+        <v>372.84911298787353</v>
       </c>
       <c r="D98" s="21">
         <f t="shared" si="15"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E98" s="22">
         <f t="shared" si="8"/>
-        <v>47113.917167647371</v>
+        <v>19015.304762381551</v>
       </c>
       <c r="F98" s="23">
         <f t="shared" si="11"/>
-        <v>4.7113917167647366E-3</v>
+        <v>1.901530476238155E-3</v>
       </c>
       <c r="I98" s="8">
         <f t="shared" si="12"/>
-        <v>7849.4959682404224</v>
+        <v>3199.1374509453349</v>
       </c>
       <c r="J98" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K98" s="6">
         <f t="shared" si="14"/>
@@ -6792,35 +6792,35 @@
       </c>
       <c r="B99" s="8">
         <f t="shared" si="9"/>
-        <v>47113.917167647371</v>
+        <v>19015.304762381551</v>
       </c>
       <c r="C99" s="20">
         <f t="shared" si="10"/>
-        <v>1413.4175150294211</v>
+        <v>380.30609524763105</v>
       </c>
       <c r="D99" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E99" s="22">
         <f t="shared" si="8"/>
-        <v>48527.334682676788</v>
+        <v>19395.610857629181</v>
       </c>
       <c r="F99" s="23">
         <f t="shared" si="11"/>
-        <v>4.8527334682676787E-3</v>
+        <v>1.9395610857629181E-3</v>
       </c>
       <c r="I99" s="8">
         <f t="shared" si="12"/>
-        <v>8084.9808472876357</v>
+        <v>3263.1201999642417</v>
       </c>
       <c r="J99" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K99" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -6829,31 +6829,31 @@
       </c>
       <c r="B100" s="8">
         <f t="shared" si="9"/>
-        <v>48527.334682676788</v>
+        <v>19395.610857629181</v>
       </c>
       <c r="C100" s="20">
         <f t="shared" si="10"/>
-        <v>1455.8200404803035</v>
+        <v>387.91221715258365</v>
       </c>
       <c r="D100" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E100" s="22">
         <f t="shared" si="8"/>
-        <v>49983.154723157095</v>
+        <v>19783.523074781766</v>
       </c>
       <c r="F100" s="23">
         <f t="shared" si="11"/>
-        <v>4.9983154723157097E-3</v>
+        <v>1.9783523074781767E-3</v>
       </c>
       <c r="I100" s="8">
         <f t="shared" si="12"/>
-        <v>8327.5302727062644</v>
+        <v>3328.382603963526</v>
       </c>
       <c r="J100" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K100" s="6">
         <f t="shared" si="14"/>
@@ -6866,35 +6866,35 @@
       </c>
       <c r="B101" s="8">
         <f t="shared" si="9"/>
-        <v>49983.154723157095</v>
+        <v>19783.523074781766</v>
       </c>
       <c r="C101" s="20">
         <f t="shared" si="10"/>
-        <v>1499.4946416947128</v>
+        <v>395.67046149563532</v>
       </c>
       <c r="D101" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E101" s="22">
         <f t="shared" si="8"/>
-        <v>51482.649364851808</v>
+        <v>20179.193536277402</v>
       </c>
       <c r="F101" s="23">
         <f t="shared" si="11"/>
-        <v>5.1482649364851807E-3</v>
+        <v>2.0179193536277403E-3</v>
       </c>
       <c r="I101" s="8">
         <f t="shared" si="12"/>
-        <v>8577.3561808874529</v>
+        <v>3394.9502560427968</v>
       </c>
       <c r="J101" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K101" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -6903,35 +6903,35 @@
       </c>
       <c r="B102" s="8">
         <f t="shared" si="9"/>
-        <v>51482.649364851808</v>
+        <v>20179.193536277402</v>
       </c>
       <c r="C102" s="20">
         <f t="shared" si="10"/>
-        <v>1544.4794809455541</v>
+        <v>403.58387072554802</v>
       </c>
       <c r="D102" s="21">
         <f t="shared" si="15"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E102" s="22">
         <f t="shared" si="8"/>
-        <v>53027.128845797364</v>
+        <v>20582.777407002952</v>
       </c>
       <c r="F102" s="23">
         <f t="shared" si="11"/>
-        <v>5.3027128845797361E-3</v>
+        <v>2.0582777407002952E-3</v>
       </c>
       <c r="I102" s="8">
         <f t="shared" si="12"/>
-        <v>8834.6768663140756</v>
+        <v>3462.8492611636525</v>
       </c>
       <c r="J102" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K102" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482022</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -6940,35 +6940,35 @@
       </c>
       <c r="B103" s="8">
         <f t="shared" si="9"/>
-        <v>53027.128845797364</v>
+        <v>20582.777407002952</v>
       </c>
       <c r="C103" s="20">
         <f t="shared" si="10"/>
-        <v>1590.8138653739209</v>
+        <v>411.65554814005907</v>
       </c>
       <c r="D103" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E103" s="22">
         <f t="shared" si="8"/>
-        <v>54617.942711171287</v>
+        <v>20994.432955143009</v>
       </c>
       <c r="F103" s="23">
         <f t="shared" si="11"/>
-        <v>5.4617942711171286E-3</v>
+        <v>2.0994432955143008E-3</v>
       </c>
       <c r="I103" s="8">
         <f t="shared" si="12"/>
-        <v>9099.717172303499</v>
+        <v>3532.1062463869262</v>
       </c>
       <c r="J103" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K103" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482022</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6977,35 +6977,35 @@
       </c>
       <c r="B104" s="8">
         <f t="shared" si="9"/>
-        <v>54617.942711171287</v>
+        <v>20994.432955143009</v>
       </c>
       <c r="C104" s="20">
         <f t="shared" si="10"/>
-        <v>1638.5382813351384</v>
+        <v>419.88865910286017</v>
       </c>
       <c r="D104" s="21">
         <f t="shared" si="15"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E104" s="22">
         <f t="shared" si="8"/>
-        <v>56256.480992506426</v>
+        <v>21414.32161424587</v>
       </c>
       <c r="F104" s="23">
         <f t="shared" si="11"/>
-        <v>5.6256480992506429E-3</v>
+        <v>2.1414321614245868E-3</v>
       </c>
       <c r="I104" s="8">
         <f t="shared" si="12"/>
-        <v>9372.7086874726047</v>
+        <v>3602.7483713146648</v>
       </c>
       <c r="J104" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K104" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -7014,35 +7014,35 @@
       </c>
       <c r="B105" s="8">
         <f t="shared" si="9"/>
-        <v>56256.480992506426</v>
+        <v>21414.32161424587</v>
       </c>
       <c r="C105" s="20">
         <f t="shared" si="10"/>
-        <v>1687.6944297751927</v>
+        <v>428.2864322849174</v>
       </c>
       <c r="D105" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E105" s="22">
         <f t="shared" si="8"/>
-        <v>57944.175422281616</v>
+        <v>21842.608046530786</v>
       </c>
       <c r="F105" s="23">
         <f t="shared" si="11"/>
-        <v>5.7944175422281613E-3</v>
+        <v>2.1842608046530785E-3</v>
       </c>
       <c r="I105" s="8">
         <f t="shared" si="12"/>
-        <v>9653.8899480967812</v>
+        <v>3674.8033387409582</v>
       </c>
       <c r="J105" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K105" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -7051,31 +7051,31 @@
       </c>
       <c r="B106" s="8">
         <f t="shared" si="9"/>
-        <v>57944.175422281616</v>
+        <v>21842.608046530786</v>
       </c>
       <c r="C106" s="20">
         <f t="shared" si="10"/>
-        <v>1738.3252626684484</v>
+        <v>436.85216093061575</v>
       </c>
       <c r="D106" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E106" s="22">
         <f t="shared" si="8"/>
-        <v>59682.500684950064</v>
+        <v>22279.460207461401</v>
       </c>
       <c r="F106" s="23">
         <f t="shared" si="11"/>
-        <v>5.9682500684950061E-3</v>
+        <v>2.2279460207461402E-3</v>
       </c>
       <c r="I106" s="8">
         <f t="shared" si="12"/>
-        <v>9943.5066465396849</v>
+        <v>3748.2994055157769</v>
       </c>
       <c r="J106" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K106" s="6">
         <f t="shared" si="14"/>
@@ -7088,35 +7088,35 @@
       </c>
       <c r="B107" s="8">
         <f t="shared" si="9"/>
-        <v>59682.500684950064</v>
+        <v>22279.460207461401</v>
       </c>
       <c r="C107" s="20">
         <f t="shared" si="10"/>
-        <v>1790.4750205485018</v>
+        <v>445.58920414922801</v>
       </c>
       <c r="D107" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E107" s="22">
         <f t="shared" si="8"/>
-        <v>61472.975705498568</v>
+        <v>22725.049411610631</v>
       </c>
       <c r="F107" s="23">
         <f t="shared" si="11"/>
-        <v>6.1472975705498568E-3</v>
+        <v>2.272504941161063E-3</v>
       </c>
       <c r="I107" s="8">
         <f t="shared" si="12"/>
-        <v>10241.811845935876</v>
+        <v>3823.2653936260922</v>
       </c>
       <c r="J107" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K107" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -7125,35 +7125,35 @@
       </c>
       <c r="B108" s="8">
         <f t="shared" si="9"/>
-        <v>61472.975705498568</v>
+        <v>22725.049411610631</v>
       </c>
       <c r="C108" s="20">
         <f t="shared" si="10"/>
-        <v>1844.1892711649571</v>
+        <v>454.50098823221265</v>
       </c>
       <c r="D108" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E108" s="22">
         <f t="shared" si="8"/>
-        <v>63317.164976663524</v>
+        <v>23179.550399842843</v>
       </c>
       <c r="F108" s="23">
         <f t="shared" si="11"/>
-        <v>6.331716497666352E-3</v>
+        <v>2.3179550399842841E-3</v>
       </c>
       <c r="I108" s="8">
         <f t="shared" si="12"/>
-        <v>10549.066201313952</v>
+        <v>3899.7307014986145</v>
       </c>
       <c r="J108" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K108" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -7162,35 +7162,35 @@
       </c>
       <c r="B109" s="8">
         <f t="shared" si="9"/>
-        <v>63317.164976663524</v>
+        <v>23179.550399842843</v>
       </c>
       <c r="C109" s="20">
         <f t="shared" si="10"/>
-        <v>1899.5149492999055</v>
+        <v>463.59100799685689</v>
       </c>
       <c r="D109" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E109" s="22">
         <f t="shared" si="8"/>
-        <v>65216.679925963428</v>
+        <v>23643.141407839699</v>
       </c>
       <c r="F109" s="23">
         <f t="shared" si="11"/>
-        <v>6.5216679925963429E-3</v>
+        <v>2.3643141407839697E-3</v>
       </c>
       <c r="I109" s="8">
         <f t="shared" si="12"/>
-        <v>10865.53818735337</v>
+        <v>3977.7253155285871</v>
       </c>
       <c r="J109" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K109" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -7199,35 +7199,35 @@
       </c>
       <c r="B110" s="8">
         <f t="shared" si="9"/>
-        <v>65216.679925963428</v>
+        <v>23643.141407839699</v>
       </c>
       <c r="C110" s="20">
         <f t="shared" si="10"/>
-        <v>1956.5003977789029</v>
+        <v>472.86282815679397</v>
       </c>
       <c r="D110" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E110" s="22">
         <f t="shared" si="8"/>
-        <v>67173.18032374233</v>
+        <v>24116.004235996494</v>
       </c>
       <c r="F110" s="23">
         <f t="shared" si="11"/>
-        <v>6.7173180323742334E-3</v>
+        <v>2.4116004235996496E-3</v>
       </c>
       <c r="I110" s="8">
         <f t="shared" si="12"/>
-        <v>11191.504332973971</v>
+        <v>4057.2798218391586</v>
       </c>
       <c r="J110" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K110" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -7236,31 +7236,31 @@
       </c>
       <c r="B111" s="8">
         <f t="shared" si="9"/>
-        <v>67173.18032374233</v>
+        <v>24116.004235996494</v>
       </c>
       <c r="C111" s="20">
         <f t="shared" si="10"/>
-        <v>2015.1954097122698</v>
+        <v>482.32008471992987</v>
       </c>
       <c r="D111" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E111" s="22">
         <f t="shared" si="8"/>
-        <v>69188.375733454595</v>
+        <v>24598.324320716423</v>
       </c>
       <c r="F111" s="23">
         <f t="shared" si="11"/>
-        <v>6.9188375733454594E-3</v>
+        <v>2.4598324320716423E-3</v>
       </c>
       <c r="I111" s="8">
         <f t="shared" si="12"/>
-        <v>11527.249462963189</v>
+        <v>4138.4254182759414</v>
       </c>
       <c r="J111" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489209</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K111" s="6">
         <f t="shared" si="14"/>
@@ -7273,35 +7273,35 @@
       </c>
       <c r="B112" s="8">
         <f t="shared" si="9"/>
-        <v>69188.375733454595</v>
+        <v>24598.324320716423</v>
       </c>
       <c r="C112" s="20">
         <f t="shared" si="10"/>
-        <v>2075.6512720036376</v>
+        <v>491.96648641432847</v>
       </c>
       <c r="D112" s="21">
         <f t="shared" si="15"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E112" s="22">
         <f t="shared" si="8"/>
-        <v>71264.027005458236</v>
+        <v>25090.29080713075</v>
       </c>
       <c r="F112" s="23">
         <f t="shared" si="11"/>
-        <v>7.126402700545824E-3</v>
+        <v>2.509029080713075E-3</v>
       </c>
       <c r="I112" s="8">
         <f t="shared" si="12"/>
-        <v>11873.066946852086</v>
+        <v>4221.1939266414602</v>
       </c>
       <c r="J112" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489203</v>
+        <v>0.11654676258992806</v>
       </c>
       <c r="K112" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -7310,35 +7310,35 @@
       </c>
       <c r="B113" s="8">
         <f t="shared" si="9"/>
-        <v>71264.027005458236</v>
+        <v>25090.29080713075</v>
       </c>
       <c r="C113" s="20">
         <f t="shared" si="10"/>
-        <v>2137.9208101637469</v>
+        <v>501.80581614261501</v>
       </c>
       <c r="D113" s="21">
         <f t="shared" si="15"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E113" s="22">
         <f t="shared" si="8"/>
-        <v>73401.947815621985</v>
+        <v>25592.096623273366</v>
       </c>
       <c r="F113" s="23">
         <f t="shared" si="11"/>
-        <v>7.3401947815621982E-3</v>
+        <v>2.5592096623273364E-3</v>
       </c>
       <c r="I113" s="8">
         <f t="shared" si="12"/>
-        <v>12229.258955257648</v>
+        <v>4305.61780517429</v>
       </c>
       <c r="J113" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992804</v>
       </c>
       <c r="K113" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -7347,35 +7347,35 @@
       </c>
       <c r="B114" s="8">
         <f t="shared" si="9"/>
-        <v>73401.947815621985</v>
+        <v>25592.096623273366</v>
       </c>
       <c r="C114" s="20">
         <f t="shared" si="10"/>
-        <v>2202.0584344686595</v>
+        <v>511.84193246546732</v>
       </c>
       <c r="D114" s="21">
         <f t="shared" si="15"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E114" s="22">
         <f t="shared" si="8"/>
-        <v>75604.00625009065</v>
+        <v>26103.938555738834</v>
       </c>
       <c r="F114" s="23">
         <f t="shared" si="11"/>
-        <v>7.5604006250090646E-3</v>
+        <v>2.6103938555738834E-3</v>
       </c>
       <c r="I114" s="8">
         <f t="shared" si="12"/>
-        <v>12596.136723915379</v>
+        <v>4391.7301612777756</v>
       </c>
       <c r="J114" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489206</v>
+        <v>0.11654676258992805</v>
       </c>
       <c r="K114" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -7384,35 +7384,35 @@
       </c>
       <c r="B115" s="8">
         <f t="shared" si="9"/>
-        <v>75604.00625009065</v>
+        <v>26103.938555738834</v>
       </c>
       <c r="C115" s="20">
         <f t="shared" si="10"/>
-        <v>2268.1201875027195</v>
+        <v>522.07877111477671</v>
       </c>
       <c r="D115" s="21">
         <f t="shared" si="15"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E115" s="22">
         <f t="shared" si="8"/>
-        <v>77872.126437593368</v>
+        <v>26626.017326853609</v>
       </c>
       <c r="F115" s="23">
         <f t="shared" si="11"/>
-        <v>7.7872126437593366E-3</v>
+        <v>2.6626017326853609E-3</v>
       </c>
       <c r="I115" s="8">
         <f t="shared" si="12"/>
-        <v>12974.020825632839</v>
+        <v>4479.5647645033305</v>
       </c>
       <c r="J115" s="20">
         <f t="shared" si="13"/>
-        <v>0.17482014388489212</v>
+        <v>0.11654676258992808</v>
       </c>
       <c r="K115" s="6">
         <f t="shared" si="14"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482022</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -8509,8 +8509,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8538,12 +8538,12 @@
         <v>13</v>
       </c>
       <c r="E2" s="8">
-        <f ca="1">(VLOOKUP(IF(WEEKDAY(TODAY(),2)=6,TODAY()-1,IF(WEEKDAY(TODAY(),2)=7,TODAY()-2,TODAY())),A8:E115,5))-$B$7</f>
-        <v>-119.0920000000001</v>
+        <f ca="1">(VLOOKUP(IF(WEEKDAY(TODAY(),2)=6,TODAY()-1,IF(WEEKDAY(TODAY(),2)=7,TODAY()-2,TODAY())),A6:E115,5))-$B$6</f>
+        <v>-146.40570000000025</v>
       </c>
       <c r="F2" s="9">
         <f ca="1">$E$2/$B$7</f>
-        <v>-4.1718745621164177E-2</v>
+        <v>-5.1286922343973411E-2</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" s="11" t="s">
@@ -8556,7 +8556,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" s="4">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4"/>
       <c r="I3" s="6" t="s">
@@ -8687,20 +8687,19 @@
         <v>2735.5479999999998</v>
       </c>
       <c r="C9" s="20">
-        <f t="shared" ref="C8:C11" si="6">B9*$C$3</f>
-        <v>82.066439999999986</v>
+        <v>85.412499999999994</v>
       </c>
       <c r="D9" s="21">
-        <f t="shared" ref="D9:D70" si="7">C9/B9</f>
-        <v>0.03</v>
+        <f t="shared" ref="D9:D70" si="6">C9/B9</f>
+        <v>3.1223177220798173E-2</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" si="0"/>
-        <v>2817.6144399999998</v>
+        <v>2820.9604999999997</v>
       </c>
       <c r="F9" s="23">
         <f t="shared" si="2"/>
-        <v>2.8176144399999996E-4</v>
+        <v>2.8209604999999998E-4</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="3"/>
@@ -8708,7 +8707,7 @@
       </c>
       <c r="J9" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0.1819480111427807</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="5"/>
@@ -8721,35 +8720,34 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" si="1"/>
-        <v>2817.6144399999998</v>
+        <v>2820.9604999999997</v>
       </c>
       <c r="C10" s="20">
+        <v>47.633800000000001</v>
+      </c>
+      <c r="D10" s="40">
         <f t="shared" si="6"/>
-        <v>84.528433199999995</v>
-      </c>
-      <c r="D10" s="40">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>1.6885667133588012E-2</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="0"/>
-        <v>2902.1428731999999</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F10" s="23">
         <f t="shared" si="2"/>
-        <v>2.9021428732E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="3"/>
-        <v>483.51655204938271</v>
+        <v>484.09075246913579</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>9.8398491929541643E-2</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482011</v>
+        <v>0.29136690647482016</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -8758,31 +8756,31 @@
       </c>
       <c r="B11" s="8">
         <f t="shared" si="1"/>
-        <v>2902.1428731999999</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C11" s="20">
+        <f t="shared" ref="C10:C11" si="7">B11*$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
         <f t="shared" si="6"/>
-        <v>87.064286195999998</v>
-      </c>
-      <c r="D11" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" si="0"/>
-        <v>2989.207159396</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F11" s="23">
         <f t="shared" si="2"/>
-        <v>2.9892071593960002E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="3"/>
-        <v>498.0220486108642</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="5"/>
@@ -8796,35 +8794,35 @@
       </c>
       <c r="B12" s="8">
         <f t="shared" si="1"/>
-        <v>2989.207159396</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" ref="C12:C73" si="8">B12*$C$3</f>
-        <v>89.676214781879992</v>
+        <v>0</v>
       </c>
       <c r="D12" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="0"/>
-        <v>3078.8833741778799</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F12" s="23">
         <f t="shared" si="2"/>
-        <v>3.0788833741778797E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="3"/>
-        <v>512.96271006919005</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482022</v>
+        <v>0.29136690647482011</v>
       </c>
       <c r="N12" s="16"/>
     </row>
@@ -8834,35 +8832,35 @@
       </c>
       <c r="B13" s="8">
         <f t="shared" si="1"/>
-        <v>3078.8833741778799</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" si="8"/>
-        <v>92.366501225336393</v>
+        <v>0</v>
       </c>
       <c r="D13" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="0"/>
-        <v>3171.2498754032163</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="2"/>
-        <v>3.1712498754032161E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="3"/>
-        <v>528.35159137126584</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -8871,35 +8869,35 @@
       </c>
       <c r="B14" s="8">
         <f t="shared" si="1"/>
-        <v>3171.2498754032163</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" si="8"/>
-        <v>95.137496262096491</v>
+        <v>0</v>
       </c>
       <c r="D14" s="40">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="0"/>
-        <v>3266.3873716653129</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F14" s="23">
         <f t="shared" si="2"/>
-        <v>3.2663873716653129E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="3"/>
-        <v>544.20213911240376</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -8908,35 +8906,35 @@
       </c>
       <c r="B15" s="8">
         <f t="shared" si="1"/>
-        <v>3266.3873716653129</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C15" s="20">
         <f t="shared" si="8"/>
-        <v>97.991621149959386</v>
+        <v>0</v>
       </c>
       <c r="D15" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="0"/>
-        <v>3364.3789928152723</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F15" s="23">
         <f t="shared" si="2"/>
-        <v>3.3643789928152726E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="3"/>
-        <v>560.52820328577593</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -8945,35 +8943,35 @@
       </c>
       <c r="B16" s="8">
         <f t="shared" si="1"/>
-        <v>3364.3789928152723</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C16" s="20">
         <f t="shared" si="8"/>
-        <v>100.93136978445817</v>
+        <v>0</v>
       </c>
       <c r="D16" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E16" s="22">
         <f t="shared" si="0"/>
-        <v>3465.3103625997305</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F16" s="23">
         <f t="shared" si="2"/>
-        <v>3.4653103625997307E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="3"/>
-        <v>577.3440493843492</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K16" s="6">
         <f>(B16*0.05)/I16</f>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -8982,31 +8980,31 @@
       </c>
       <c r="B17" s="8">
         <f t="shared" si="1"/>
-        <v>3465.3103625997305</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C17" s="20">
         <f t="shared" si="8"/>
-        <v>103.95931087799191</v>
+        <v>0</v>
       </c>
       <c r="D17" s="40">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E17" s="22">
         <f t="shared" si="0"/>
-        <v>3569.2696734777223</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F17" s="23">
         <f t="shared" si="2"/>
-        <v>3.5692696734777223E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="3"/>
-        <v>594.66437086587973</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="5"/>
@@ -9019,31 +9017,31 @@
       </c>
       <c r="B18" s="8">
         <f t="shared" si="1"/>
-        <v>3569.2696734777223</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" si="8"/>
-        <v>107.07809020433167</v>
+        <v>0</v>
       </c>
       <c r="D18" s="21">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="0"/>
-        <v>3676.3477636820539</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F18" s="23">
         <f t="shared" si="2"/>
-        <v>3.6763477636820538E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="3"/>
-        <v>612.5043019918561</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="5"/>
@@ -9056,35 +9054,35 @@
       </c>
       <c r="B19" s="8">
         <f t="shared" si="1"/>
-        <v>3676.3477636820539</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" si="8"/>
-        <v>110.29043291046162</v>
+        <v>0</v>
       </c>
       <c r="D19" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="0"/>
-        <v>3786.6381965925157</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F19" s="23">
         <f t="shared" si="2"/>
-        <v>3.7866381965925155E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="3"/>
-        <v>630.87943105161173</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9093,35 +9091,35 @@
       </c>
       <c r="B20" s="8">
         <f t="shared" si="1"/>
-        <v>3786.6381965925157</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C20" s="20">
         <f t="shared" si="8"/>
-        <v>113.59914589777547</v>
+        <v>0</v>
       </c>
       <c r="D20" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="0"/>
-        <v>3900.2373424902912</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F20" s="23">
         <f t="shared" si="2"/>
-        <v>3.9002373424902912E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="3"/>
-        <v>649.80581398316008</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9130,35 +9128,35 @@
       </c>
       <c r="B21" s="8">
         <f t="shared" si="1"/>
-        <v>3900.2373424902912</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" si="8"/>
-        <v>117.00712027470873</v>
+        <v>0</v>
       </c>
       <c r="D21" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="0"/>
-        <v>4017.2444627649998</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F21" s="23">
         <f t="shared" si="2"/>
-        <v>4.0172444627649997E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="3"/>
-        <v>669.29998840265489</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9167,35 +9165,35 @@
       </c>
       <c r="B22" s="8">
         <f t="shared" si="1"/>
-        <v>4017.2444627649998</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" si="8"/>
-        <v>120.51733388294998</v>
+        <v>0</v>
       </c>
       <c r="D22" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="0"/>
-        <v>4137.7617966479502</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F22" s="23">
         <f t="shared" si="2"/>
-        <v>4.1377617966479501E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="3"/>
-        <v>689.37898805473446</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -9204,35 +9202,35 @@
       </c>
       <c r="B23" s="8">
         <f t="shared" si="1"/>
-        <v>4137.7617966479502</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" si="8"/>
-        <v>124.1328538994385</v>
+        <v>0</v>
       </c>
       <c r="D23" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="0"/>
-        <v>4261.8946505473887</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F23" s="23">
         <f t="shared" si="2"/>
-        <v>4.2618946505473885E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="3"/>
-        <v>710.06035769637663</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J23" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -9241,35 +9239,35 @@
       </c>
       <c r="B24" s="8">
         <f t="shared" si="1"/>
-        <v>4261.8946505473887</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" si="8"/>
-        <v>127.85683951642166</v>
+        <v>0</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E24" s="22">
         <f t="shared" si="0"/>
-        <v>4389.7514900638107</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F24" s="23">
         <f t="shared" si="2"/>
-        <v>4.3897514900638105E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="3"/>
-        <v>731.36216842726799</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J24" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9278,35 +9276,35 @@
       </c>
       <c r="B25" s="8">
         <f t="shared" si="1"/>
-        <v>4389.7514900638107</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" si="8"/>
-        <v>131.69254470191433</v>
+        <v>0</v>
       </c>
       <c r="D25" s="21">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" si="0"/>
-        <v>4521.4440347657246</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F25" s="23">
         <f t="shared" si="2"/>
-        <v>4.5214440347657244E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="3"/>
-        <v>753.30303348008601</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J25" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489212</v>
+        <v>0</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -9315,35 +9313,35 @@
       </c>
       <c r="B26" s="8">
         <f t="shared" si="1"/>
-        <v>4521.4440347657246</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C26" s="20">
         <f t="shared" si="8"/>
-        <v>135.64332104297173</v>
+        <v>0</v>
       </c>
       <c r="D26" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
-        <v>4657.087355808696</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F26" s="23">
         <f t="shared" si="2"/>
-        <v>4.6570873558086961E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="3"/>
-        <v>775.90212448448858</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J26" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -9352,35 +9350,35 @@
       </c>
       <c r="B27" s="8">
         <f t="shared" si="1"/>
-        <v>4657.087355808696</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C27" s="20">
         <f t="shared" si="8"/>
-        <v>139.71262067426088</v>
+        <v>0</v>
       </c>
       <c r="D27" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E27" s="22">
         <f t="shared" si="0"/>
-        <v>4796.7999764829565</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F27" s="23">
         <f t="shared" si="2"/>
-        <v>4.7967999764829563E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="3"/>
-        <v>799.1791882190231</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -9389,35 +9387,35 @@
       </c>
       <c r="B28" s="8">
         <f t="shared" si="1"/>
-        <v>4796.7999764829565</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" si="8"/>
-        <v>143.9039992944887</v>
+        <v>0</v>
       </c>
       <c r="D28" s="21">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E28" s="22">
         <f t="shared" si="0"/>
-        <v>4940.7039757774455</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F28" s="23">
         <f t="shared" si="2"/>
-        <v>4.9407039757774459E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="3"/>
-        <v>823.15456386559379</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9426,35 +9424,35 @@
       </c>
       <c r="B29" s="8">
         <f t="shared" si="1"/>
-        <v>4940.7039757774455</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C29" s="20">
         <f t="shared" si="8"/>
-        <v>148.22111927332335</v>
+        <v>0</v>
       </c>
       <c r="D29" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E29" s="22">
         <f t="shared" si="0"/>
-        <v>5088.9250950507685</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F29" s="23">
         <f t="shared" si="2"/>
-        <v>5.0889250950507685E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="3"/>
-        <v>847.84920078156165</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -9463,31 +9461,31 @@
       </c>
       <c r="B30" s="8">
         <f t="shared" si="1"/>
-        <v>5088.9250950507685</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="8"/>
-        <v>152.66775285152306</v>
+        <v>0</v>
       </c>
       <c r="D30" s="40">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E30" s="22">
         <f t="shared" si="0"/>
-        <v>5241.5928479022914</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F30" s="23">
         <f t="shared" si="2"/>
-        <v>5.2415928479022911E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="3"/>
-        <v>873.28467680500853</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J30" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="5"/>
@@ -9500,35 +9498,35 @@
       </c>
       <c r="B31" s="8">
         <f t="shared" si="1"/>
-        <v>5241.5928479022914</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C31" s="20">
         <f t="shared" si="8"/>
-        <v>157.24778543706873</v>
+        <v>0</v>
       </c>
       <c r="D31" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E31" s="22">
         <f t="shared" si="0"/>
-        <v>5398.8406333393605</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F31" s="23">
         <f t="shared" si="2"/>
-        <v>5.3988406333393599E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="3"/>
-        <v>899.48321710915877</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -9537,35 +9535,35 @@
       </c>
       <c r="B32" s="8">
         <f t="shared" si="1"/>
-        <v>5398.8406333393605</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="8"/>
-        <v>161.96521900018081</v>
+        <v>0</v>
       </c>
       <c r="D32" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E32" s="22">
         <f t="shared" si="0"/>
-        <v>5560.8058523395412</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F32" s="23">
         <f t="shared" si="2"/>
-        <v>5.560805852339541E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="3"/>
-        <v>926.46771362243351</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -9574,31 +9572,31 @@
       </c>
       <c r="B33" s="8">
         <f t="shared" si="1"/>
-        <v>5560.8058523395412</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C33" s="20">
         <f t="shared" si="8"/>
-        <v>166.82417557018624</v>
+        <v>0</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E33" s="22">
         <f t="shared" si="0"/>
-        <v>5727.6300279097277</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F33" s="23">
         <f t="shared" si="2"/>
-        <v>5.7276300279097275E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="3"/>
-        <v>954.26174503110656</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J33" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="5"/>
@@ -9611,35 +9609,35 @@
       </c>
       <c r="B34" s="8">
         <f t="shared" si="1"/>
-        <v>5727.6300279097277</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C34" s="20">
         <f t="shared" si="8"/>
-        <v>171.82890083729183</v>
+        <v>0</v>
       </c>
       <c r="D34" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E34" s="22">
         <f t="shared" si="0"/>
-        <v>5899.4589287470199</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F34" s="23">
         <f t="shared" si="2"/>
-        <v>5.8994589287470194E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="3"/>
-        <v>982.88959738203971</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J34" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -9648,36 +9646,36 @@
       </c>
       <c r="B35" s="8">
         <f t="shared" si="1"/>
-        <v>5899.4589287470199</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C35" s="20">
         <f t="shared" si="8"/>
-        <v>176.98376786241059</v>
+        <v>0</v>
       </c>
       <c r="D35" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E35" s="22">
         <f t="shared" si="0"/>
-        <v>6076.4426966094306</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F35" s="23">
         <f t="shared" si="2"/>
-        <v>6.0764426966094306E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="G35" s="1"/>
       <c r="I35" s="8">
         <f t="shared" si="3"/>
-        <v>1012.376285303501</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J35" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -9686,35 +9684,35 @@
       </c>
       <c r="B36" s="8">
         <f t="shared" si="1"/>
-        <v>6076.4426966094306</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C36" s="20">
         <f t="shared" si="8"/>
-        <v>182.29328089828292</v>
+        <v>0</v>
       </c>
       <c r="D36" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E36" s="22">
         <f t="shared" si="0"/>
-        <v>6258.7359775077139</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F36" s="23">
         <f t="shared" si="2"/>
-        <v>6.258735977507714E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="3"/>
-        <v>1042.747573862606</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J36" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -9723,35 +9721,35 @@
       </c>
       <c r="B37" s="8">
         <f t="shared" si="1"/>
-        <v>6258.7359775077139</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C37" s="20">
         <f t="shared" si="8"/>
-        <v>187.76207932523141</v>
+        <v>0</v>
       </c>
       <c r="D37" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" si="0"/>
-        <v>6446.4980568329456</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F37" s="23">
         <f t="shared" si="2"/>
-        <v>6.4464980568329456E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="3"/>
-        <v>1074.0300010784842</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J37" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K37" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -9760,35 +9758,35 @@
       </c>
       <c r="B38" s="8">
         <f t="shared" si="1"/>
-        <v>6446.4980568329456</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C38" s="20">
         <f t="shared" si="8"/>
-        <v>193.39494170498836</v>
+        <v>0</v>
       </c>
       <c r="D38" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" si="0"/>
-        <v>6639.8929985379336</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F38" s="23">
         <f t="shared" si="2"/>
-        <v>6.6398929985379341E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" ref="I38:I69" si="9">B38*$J$2/$J$3</f>
-        <v>1106.2509011108389</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" si="4"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -9797,35 +9795,35 @@
       </c>
       <c r="B39" s="8">
         <f t="shared" si="1"/>
-        <v>6639.8929985379336</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C39" s="20">
         <f t="shared" si="8"/>
-        <v>199.19678995613799</v>
+        <v>0</v>
       </c>
       <c r="D39" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:E102" si="10">B39+C39</f>
-        <v>6839.0897884940714</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F39" s="23">
         <f t="shared" ref="F39:F102" si="11">E39/10000000</f>
-        <v>6.8390897884940713E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="9"/>
-        <v>1139.4384281441639</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" ref="J39:J102" si="12">C39/I39</f>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -9834,35 +9832,35 @@
       </c>
       <c r="B40" s="8">
         <f t="shared" ref="B40:B103" si="13">E39</f>
-        <v>6839.0897884940714</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C40" s="20">
         <f t="shared" si="8"/>
-        <v>205.17269365482213</v>
+        <v>0</v>
       </c>
       <c r="D40" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E40" s="22">
         <f t="shared" si="10"/>
-        <v>7044.2624821488935</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F40" s="23">
         <f t="shared" si="11"/>
-        <v>7.0442624821488936E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="9"/>
-        <v>1173.6215809884889</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J40" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -9871,35 +9869,35 @@
       </c>
       <c r="B41" s="8">
         <f t="shared" si="13"/>
-        <v>7044.2624821488935</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C41" s="20">
         <f t="shared" si="8"/>
-        <v>211.32787446446679</v>
+        <v>0</v>
       </c>
       <c r="D41" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E41" s="22">
         <f t="shared" si="10"/>
-        <v>7255.5903566133602</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F41" s="23">
         <f t="shared" si="11"/>
-        <v>7.2555903566133605E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="9"/>
-        <v>1208.8302284181434</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J41" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -9908,35 +9906,35 @@
       </c>
       <c r="B42" s="8">
         <f t="shared" si="13"/>
-        <v>7255.5903566133602</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C42" s="20">
         <f t="shared" si="8"/>
-        <v>217.66771069840081</v>
+        <v>0</v>
       </c>
       <c r="D42" s="21">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E42" s="22">
         <f t="shared" si="10"/>
-        <v>7473.2580673117609</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F42" s="23">
         <f t="shared" si="11"/>
-        <v>7.4732580673117608E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="9"/>
-        <v>1245.0951352706877</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J42" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K42" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -9945,35 +9943,35 @@
       </c>
       <c r="B43" s="8">
         <f t="shared" si="13"/>
-        <v>7473.2580673117609</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C43" s="20">
         <f t="shared" si="8"/>
-        <v>224.19774201935283</v>
+        <v>0</v>
       </c>
       <c r="D43" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E43" s="22">
         <f t="shared" si="10"/>
-        <v>7697.4558093311134</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F43" s="23">
         <f t="shared" si="11"/>
-        <v>7.6974558093311136E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="9"/>
-        <v>1282.4479893288085</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J43" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -9982,35 +9980,35 @@
       </c>
       <c r="B44" s="8">
         <f t="shared" si="13"/>
-        <v>7697.4558093311134</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C44" s="20">
         <f t="shared" si="8"/>
-        <v>230.92367427993338</v>
+        <v>0</v>
       </c>
       <c r="D44" s="21">
-        <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E44" s="22">
         <f t="shared" si="10"/>
-        <v>7928.3794836110465</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F44" s="23">
         <f t="shared" si="11"/>
-        <v>7.9283794836110461E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="9"/>
-        <v>1320.9214290086725</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J44" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -10019,35 +10017,35 @@
       </c>
       <c r="B45" s="8">
         <f t="shared" si="13"/>
-        <v>7928.3794836110465</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C45" s="20">
         <f t="shared" si="8"/>
-        <v>237.85138450833139</v>
+        <v>0</v>
       </c>
       <c r="D45" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E45" s="22">
         <f t="shared" si="10"/>
-        <v>8166.2308681193781</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F45" s="23">
         <f t="shared" si="11"/>
-        <v>8.1662308681193778E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="9"/>
-        <v>1360.5490718789326</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J45" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K45" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -10056,36 +10054,36 @@
       </c>
       <c r="B46" s="8">
         <f t="shared" si="13"/>
-        <v>8166.2308681193781</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C46" s="20">
         <f t="shared" si="8"/>
-        <v>244.98692604358132</v>
+        <v>0</v>
       </c>
       <c r="D46" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E46" s="22">
         <f t="shared" si="10"/>
-        <v>8411.2177941629598</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F46" s="23">
         <f t="shared" si="11"/>
-        <v>8.4112177941629595E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="G46" s="3"/>
       <c r="I46" s="8">
         <f t="shared" si="9"/>
-        <v>1401.3655440353007</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J46" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K46" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -10094,35 +10092,35 @@
       </c>
       <c r="B47" s="8">
         <f t="shared" si="13"/>
-        <v>8411.2177941629598</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C47" s="20">
         <f t="shared" si="8"/>
-        <v>252.33653382488879</v>
+        <v>0</v>
       </c>
       <c r="D47" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E47" s="22">
         <f t="shared" si="10"/>
-        <v>8663.5543279878493</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F47" s="23">
         <f t="shared" si="11"/>
-        <v>8.6635543279878495E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" si="9"/>
-        <v>1443.4065103563598</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J47" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K47" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -10131,35 +10129,35 @@
       </c>
       <c r="B48" s="8">
         <f t="shared" si="13"/>
-        <v>8663.5543279878493</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C48" s="20">
         <f t="shared" si="8"/>
-        <v>259.90662983963546</v>
+        <v>0</v>
       </c>
       <c r="D48" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E48" s="22">
         <f t="shared" si="10"/>
-        <v>8923.4609578274849</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F48" s="23">
         <f t="shared" si="11"/>
-        <v>8.9234609578274851E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" si="9"/>
-        <v>1486.7087056670507</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J48" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K48" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -10168,31 +10166,31 @@
       </c>
       <c r="B49" s="8">
         <f t="shared" si="13"/>
-        <v>8923.4609578274849</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C49" s="20">
         <f t="shared" si="8"/>
-        <v>267.70382873482453</v>
+        <v>0</v>
       </c>
       <c r="D49" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E49" s="22">
         <f t="shared" si="10"/>
-        <v>9191.164786562309</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F49" s="23">
         <f t="shared" si="11"/>
-        <v>9.1911647865623085E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="9"/>
-        <v>1531.3099668370623</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J49" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K49" s="6">
         <f t="shared" si="5"/>
@@ -10205,35 +10203,35 @@
       </c>
       <c r="B50" s="8">
         <f t="shared" si="13"/>
-        <v>9191.164786562309</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C50" s="20">
         <f t="shared" si="8"/>
-        <v>275.73494359686924</v>
+        <v>0</v>
       </c>
       <c r="D50" s="21">
-        <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E50" s="22">
         <f t="shared" si="10"/>
-        <v>9466.8997301591789</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F50" s="23">
         <f t="shared" si="11"/>
-        <v>9.4668997301591785E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" si="9"/>
-        <v>1577.2492658421741</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J50" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -10242,35 +10240,35 @@
       </c>
       <c r="B51" s="8">
         <f t="shared" si="13"/>
-        <v>9466.8997301591789</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C51" s="20">
         <f t="shared" si="8"/>
-        <v>284.00699190477536</v>
+        <v>0</v>
       </c>
       <c r="D51" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E51" s="22">
         <f t="shared" si="10"/>
-        <v>9750.9067220639536</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F51" s="23">
         <f t="shared" si="11"/>
-        <v>9.7509067220639533E-4</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" si="9"/>
-        <v>1624.5667438174394</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J51" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K51" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -10279,35 +10277,35 @@
       </c>
       <c r="B52" s="8">
         <f t="shared" si="13"/>
-        <v>9750.9067220639536</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C52" s="20">
         <f t="shared" si="8"/>
-        <v>292.52720166191858</v>
+        <v>0</v>
       </c>
       <c r="D52" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E52" s="22">
         <f t="shared" si="10"/>
-        <v>10043.433923725872</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F52" s="23">
         <f t="shared" si="11"/>
-        <v>1.0043433923725871E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="9"/>
-        <v>1673.3037461319623</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J52" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K52" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -10316,35 +10314,35 @@
       </c>
       <c r="B53" s="8">
         <f t="shared" si="13"/>
-        <v>10043.433923725872</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C53" s="20">
         <f t="shared" si="8"/>
-        <v>301.30301771177614</v>
+        <v>0</v>
       </c>
       <c r="D53" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E53" s="22">
         <f t="shared" si="10"/>
-        <v>10344.736941437648</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="11"/>
-        <v>1.0344736941437648E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" si="9"/>
-        <v>1723.5028585159212</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J53" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K53" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -10353,31 +10351,31 @@
       </c>
       <c r="B54" s="8">
         <f t="shared" si="13"/>
-        <v>10344.736941437648</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C54" s="20">
         <f t="shared" si="8"/>
-        <v>310.34210824312942</v>
+        <v>0</v>
       </c>
       <c r="D54" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E54" s="22">
         <f t="shared" si="10"/>
-        <v>10655.079049680777</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F54" s="23">
         <f t="shared" si="11"/>
-        <v>1.0655079049680777E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" si="9"/>
-        <v>1775.2079442713991</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J54" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K54" s="6">
         <f t="shared" si="5"/>
@@ -10390,35 +10388,35 @@
       </c>
       <c r="B55" s="8">
         <f t="shared" si="13"/>
-        <v>10655.079049680777</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C55" s="20">
         <f t="shared" si="8"/>
-        <v>319.65237149042326</v>
+        <v>0</v>
       </c>
       <c r="D55" s="21">
-        <f t="shared" si="7"/>
-        <v>2.9999999999999995E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E55" s="22">
         <f t="shared" si="10"/>
-        <v>10974.7314211712</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F55" s="23">
         <f t="shared" si="11"/>
-        <v>1.09747314211712E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" si="9"/>
-        <v>1828.4641825995407</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J55" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K55" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -10427,31 +10425,31 @@
       </c>
       <c r="B56" s="8">
         <f t="shared" si="13"/>
-        <v>10974.7314211712</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C56" s="20">
         <f t="shared" si="8"/>
-        <v>329.24194263513601</v>
+        <v>0</v>
       </c>
       <c r="D56" s="21">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E56" s="22">
         <f t="shared" si="10"/>
-        <v>11303.973363806335</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F56" s="23">
         <f t="shared" si="11"/>
-        <v>1.1303973363806336E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" si="9"/>
-        <v>1883.3181080775271</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J56" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K56" s="6">
         <f t="shared" si="5"/>
@@ -10464,35 +10462,35 @@
       </c>
       <c r="B57" s="8">
         <f t="shared" si="13"/>
-        <v>11303.973363806335</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C57" s="20">
         <f t="shared" si="8"/>
-        <v>339.11920091419006</v>
+        <v>0</v>
       </c>
       <c r="D57" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E57" s="22">
         <f t="shared" si="10"/>
-        <v>11643.092564720526</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="11"/>
-        <v>1.1643092564720527E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" si="9"/>
-        <v>1939.8176513198525</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J57" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K57" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -10501,31 +10499,31 @@
       </c>
       <c r="B58" s="8">
         <f t="shared" si="13"/>
-        <v>11643.092564720526</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C58" s="20">
         <f t="shared" si="8"/>
-        <v>349.29277694161578</v>
+        <v>0</v>
       </c>
       <c r="D58" s="21">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E58" s="22">
         <f t="shared" si="10"/>
-        <v>11992.385341662142</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F58" s="23">
         <f t="shared" si="11"/>
-        <v>1.1992385341662143E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" si="9"/>
-        <v>1998.0121808594483</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J58" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K58" s="6">
         <f t="shared" si="5"/>
@@ -10538,35 +10536,35 @@
       </c>
       <c r="B59" s="8">
         <f t="shared" si="13"/>
-        <v>11992.385341662142</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C59" s="20">
         <f t="shared" si="8"/>
-        <v>359.77156024986425</v>
+        <v>0</v>
       </c>
       <c r="D59" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E59" s="22">
         <f t="shared" si="10"/>
-        <v>12352.156901912007</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="11"/>
-        <v>1.2352156901912006E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" si="9"/>
-        <v>2057.9525462852316</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J59" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K59" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482022</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -10575,35 +10573,35 @@
       </c>
       <c r="B60" s="8">
         <f t="shared" si="13"/>
-        <v>12352.156901912007</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C60" s="20">
         <f t="shared" si="8"/>
-        <v>370.56470705736018</v>
+        <v>0</v>
       </c>
       <c r="D60" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E60" s="22">
         <f t="shared" si="10"/>
-        <v>12722.721608969367</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F60" s="23">
         <f t="shared" si="11"/>
-        <v>1.2722721608969367E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" si="9"/>
-        <v>2119.6911226737889</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J60" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K60" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -10612,35 +10610,35 @@
       </c>
       <c r="B61" s="8">
         <f t="shared" si="13"/>
-        <v>12722.721608969367</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C61" s="20">
         <f t="shared" si="8"/>
-        <v>381.68164826908099</v>
+        <v>0</v>
       </c>
       <c r="D61" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E61" s="22">
         <f t="shared" si="10"/>
-        <v>13104.403257238448</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F61" s="23">
         <f t="shared" si="11"/>
-        <v>1.3104403257238448E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" si="9"/>
-        <v>2183.2818563540027</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J61" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K61" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -10649,35 +10647,35 @@
       </c>
       <c r="B62" s="8">
         <f t="shared" si="13"/>
-        <v>13104.403257238448</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C62" s="20">
         <f t="shared" si="8"/>
-        <v>393.13209771715344</v>
+        <v>0</v>
       </c>
       <c r="D62" s="21">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000002E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E62" s="22">
         <f t="shared" si="10"/>
-        <v>13497.5353549556</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F62" s="23">
         <f t="shared" si="11"/>
-        <v>1.34975353549556E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" si="9"/>
-        <v>2248.7803120446224</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J62" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -10686,35 +10684,35 @@
       </c>
       <c r="B63" s="8">
         <f t="shared" si="13"/>
-        <v>13497.5353549556</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C63" s="20">
         <f t="shared" si="8"/>
-        <v>404.926060648668</v>
+        <v>0</v>
       </c>
       <c r="D63" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E63" s="22">
         <f t="shared" si="10"/>
-        <v>13902.461415604268</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F63" s="23">
         <f t="shared" si="11"/>
-        <v>1.3902461415604267E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" si="9"/>
-        <v>2316.243721405961</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J63" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K63" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -10723,35 +10721,35 @@
       </c>
       <c r="B64" s="8">
         <f t="shared" si="13"/>
-        <v>13902.461415604268</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C64" s="20">
         <f t="shared" si="8"/>
-        <v>417.07384246812802</v>
+        <v>0</v>
       </c>
       <c r="D64" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E64" s="22">
         <f t="shared" si="10"/>
-        <v>14319.535258072396</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F64" s="23">
         <f t="shared" si="11"/>
-        <v>1.4319535258072395E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" si="9"/>
-        <v>2385.7310330481396</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J64" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K64" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -10760,31 +10758,31 @@
       </c>
       <c r="B65" s="8">
         <f t="shared" si="13"/>
-        <v>14319.535258072396</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C65" s="20">
         <f t="shared" si="8"/>
-        <v>429.58605774217187</v>
+        <v>0</v>
       </c>
       <c r="D65" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E65" s="22">
         <f t="shared" si="10"/>
-        <v>14749.121315814567</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="11"/>
-        <v>1.4749121315814568E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" si="9"/>
-        <v>2457.3029640395844</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J65" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K65" s="6">
         <f t="shared" si="5"/>
@@ -10797,35 +10795,35 @@
       </c>
       <c r="B66" s="8">
         <f t="shared" si="13"/>
-        <v>14749.121315814567</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C66" s="20">
         <f t="shared" si="8"/>
-        <v>442.47363947443699</v>
+        <v>0</v>
       </c>
       <c r="D66" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E66" s="22">
         <f t="shared" si="10"/>
-        <v>15191.594955289005</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F66" s="23">
         <f t="shared" si="11"/>
-        <v>1.5191594955289004E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" si="9"/>
-        <v>2531.0220529607714</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J66" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K66" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -10834,35 +10832,35 @@
       </c>
       <c r="B67" s="8">
         <f t="shared" si="13"/>
-        <v>15191.594955289005</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C67" s="20">
         <f t="shared" si="8"/>
-        <v>455.74784865867014</v>
+        <v>0</v>
       </c>
       <c r="D67" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E67" s="22">
         <f t="shared" si="10"/>
-        <v>15647.342803947675</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" si="11"/>
-        <v>1.5647342803947674E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" si="9"/>
-        <v>2606.9527145495949</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J67" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K67" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -10871,35 +10869,35 @@
       </c>
       <c r="B68" s="8">
         <f t="shared" si="13"/>
-        <v>15647.342803947675</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C68" s="20">
         <f t="shared" si="8"/>
-        <v>469.42028411843023</v>
+        <v>0</v>
       </c>
       <c r="D68" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E68" s="22">
         <f t="shared" si="10"/>
-        <v>16116.763088066105</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F68" s="23">
         <f t="shared" si="11"/>
-        <v>1.6116763088066105E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" si="9"/>
-        <v>2685.1612959860827</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J68" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K68" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -10908,35 +10906,35 @@
       </c>
       <c r="B69" s="8">
         <f t="shared" si="13"/>
-        <v>16116.763088066105</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C69" s="20">
         <f t="shared" si="8"/>
-        <v>483.50289264198312</v>
+        <v>0</v>
       </c>
       <c r="D69" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E69" s="22">
         <f t="shared" si="10"/>
-        <v>16600.265980708089</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F69" s="23">
         <f t="shared" si="11"/>
-        <v>1.6600265980708088E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" si="9"/>
-        <v>2765.716134865665</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J69" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K69" s="6">
         <f t="shared" si="5"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -10945,35 +10943,35 @@
       </c>
       <c r="B70" s="8">
         <f t="shared" si="13"/>
-        <v>16600.265980708089</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C70" s="20">
         <f t="shared" si="8"/>
-        <v>498.00797942124268</v>
+        <v>0</v>
       </c>
       <c r="D70" s="21">
-        <f t="shared" si="7"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E70" s="22">
         <f t="shared" si="10"/>
-        <v>17098.273960129332</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F70" s="23">
         <f t="shared" si="11"/>
-        <v>1.7098273960129333E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" ref="I70:I101" si="14">B70*$J$2/$J$3</f>
-        <v>2848.6876189116351</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J70" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K70" s="6">
         <f t="shared" ref="K70:K133" si="15">(B70*0.05)/I70</f>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -10982,31 +10980,31 @@
       </c>
       <c r="B71" s="8">
         <f t="shared" si="13"/>
-        <v>17098.273960129332</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C71" s="20">
         <f t="shared" si="8"/>
-        <v>512.94821880387997</v>
+        <v>0</v>
       </c>
       <c r="D71" s="21">
         <f t="shared" ref="D71:D115" si="16">C71/B71</f>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E71" s="22">
         <f t="shared" si="10"/>
-        <v>17611.222178933211</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="11"/>
-        <v>1.7611222178933212E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" si="14"/>
-        <v>2934.1482474789846</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J71" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K71" s="6">
         <f t="shared" si="15"/>
@@ -11019,35 +11017,35 @@
       </c>
       <c r="B72" s="8">
         <f t="shared" si="13"/>
-        <v>17611.222178933211</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C72" s="20">
         <f t="shared" si="8"/>
-        <v>528.33666536799626</v>
+        <v>0</v>
       </c>
       <c r="D72" s="21">
         <f t="shared" si="16"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="E72" s="22">
         <f t="shared" si="10"/>
-        <v>18139.558844301206</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F72" s="23">
         <f t="shared" si="11"/>
-        <v>1.8139558844301206E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" si="14"/>
-        <v>3022.1726949033537</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J72" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K72" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -11056,35 +11054,35 @@
       </c>
       <c r="B73" s="8">
         <f t="shared" si="13"/>
-        <v>18139.558844301206</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C73" s="20">
         <f t="shared" si="8"/>
-        <v>544.18676532903612</v>
+        <v>0</v>
       </c>
       <c r="D73" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E73" s="22">
         <f t="shared" si="10"/>
-        <v>18683.745609630241</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F73" s="23">
         <f t="shared" si="11"/>
-        <v>1.8683745609630242E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" si="14"/>
-        <v>3112.8378757504538</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J73" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K73" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -11093,35 +11091,35 @@
       </c>
       <c r="B74" s="8">
         <f t="shared" si="13"/>
-        <v>18683.745609630241</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C74" s="20">
         <f t="shared" ref="C74:C115" si="17">B74*$C$3</f>
-        <v>560.51236828890717</v>
+        <v>0</v>
       </c>
       <c r="D74" s="21">
         <f t="shared" si="16"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="E74" s="22">
         <f t="shared" si="10"/>
-        <v>19244.257977919147</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F74" s="23">
         <f t="shared" si="11"/>
-        <v>1.9244257977919148E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" si="14"/>
-        <v>3206.2230120229674</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J74" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K74" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -11130,31 +11128,31 @@
       </c>
       <c r="B75" s="8">
         <f t="shared" si="13"/>
-        <v>19244.257977919147</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C75" s="20">
         <f t="shared" si="17"/>
-        <v>577.32773933757437</v>
+        <v>0</v>
       </c>
       <c r="D75" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E75" s="22">
         <f t="shared" si="10"/>
-        <v>19821.585717256723</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F75" s="23">
         <f t="shared" si="11"/>
-        <v>1.9821585717256724E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" si="14"/>
-        <v>3302.4097023836566</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J75" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K75" s="6">
         <f t="shared" si="15"/>
@@ -11167,35 +11165,35 @@
       </c>
       <c r="B76" s="8">
         <f t="shared" si="13"/>
-        <v>19821.585717256723</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C76" s="20">
         <f t="shared" si="17"/>
-        <v>594.64757151770164</v>
+        <v>0</v>
       </c>
       <c r="D76" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E76" s="22">
         <f t="shared" si="10"/>
-        <v>20416.233288774423</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F76" s="23">
         <f t="shared" si="11"/>
-        <v>2.0416233288774424E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" si="14"/>
-        <v>3401.481993455166</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J76" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K76" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -11204,31 +11202,31 @@
       </c>
       <c r="B77" s="8">
         <f t="shared" si="13"/>
-        <v>20416.233288774423</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C77" s="20">
         <f t="shared" si="17"/>
-        <v>612.48699866323273</v>
+        <v>0</v>
       </c>
       <c r="D77" s="21">
         <f t="shared" si="16"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E77" s="22">
         <f t="shared" si="10"/>
-        <v>21028.720287437656</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" si="11"/>
-        <v>2.1028720287437656E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" si="14"/>
-        <v>3503.5264532588212</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J77" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K77" s="6">
         <f t="shared" si="15"/>
@@ -11241,35 +11239,35 @@
       </c>
       <c r="B78" s="8">
         <f t="shared" si="13"/>
-        <v>21028.720287437656</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C78" s="20">
         <f t="shared" si="17"/>
-        <v>630.86160862312965</v>
+        <v>0</v>
       </c>
       <c r="D78" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E78" s="22">
         <f t="shared" si="10"/>
-        <v>21659.581896060787</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F78" s="23">
         <f t="shared" si="11"/>
-        <v>2.1659581896060786E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" si="14"/>
-        <v>3608.6322468565854</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J78" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K78" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -11278,35 +11276,35 @@
       </c>
       <c r="B79" s="8">
         <f t="shared" si="13"/>
-        <v>21659.581896060787</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C79" s="20">
         <f t="shared" si="17"/>
-        <v>649.78745688182357</v>
+        <v>0</v>
       </c>
       <c r="D79" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E79" s="22">
         <f t="shared" si="10"/>
-        <v>22309.369352942609</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F79" s="23">
         <f t="shared" si="11"/>
-        <v>2.2309369352942611E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" si="14"/>
-        <v>3716.891214262283</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J79" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K79" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -11315,31 +11313,31 @@
       </c>
       <c r="B80" s="8">
         <f t="shared" si="13"/>
-        <v>22309.369352942609</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C80" s="20">
         <f t="shared" si="17"/>
-        <v>669.2810805882782</v>
+        <v>0</v>
       </c>
       <c r="D80" s="21">
         <f t="shared" si="16"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="E80" s="22">
         <f t="shared" si="10"/>
-        <v>22978.650433530885</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F80" s="23">
         <f t="shared" si="11"/>
-        <v>2.2978650433530885E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" si="14"/>
-        <v>3828.3979506901514</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J80" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K80" s="6">
         <f t="shared" si="15"/>
@@ -11352,35 +11350,35 @@
       </c>
       <c r="B81" s="8">
         <f t="shared" si="13"/>
-        <v>22978.650433530885</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C81" s="20">
         <f t="shared" si="17"/>
-        <v>689.35951300592649</v>
+        <v>0</v>
       </c>
       <c r="D81" s="21">
         <f t="shared" si="16"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="E81" s="22">
         <f t="shared" si="10"/>
-        <v>23668.009946536811</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F81" s="23">
         <f t="shared" si="11"/>
-        <v>2.3668009946536811E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" si="14"/>
-        <v>3943.2498892108561</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J81" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -11389,35 +11387,35 @@
       </c>
       <c r="B82" s="8">
         <f t="shared" si="13"/>
-        <v>23668.009946536811</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C82" s="20">
         <f t="shared" si="17"/>
-        <v>710.04029839610428</v>
+        <v>0</v>
       </c>
       <c r="D82" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E82" s="22">
         <f t="shared" si="10"/>
-        <v>24378.050244932914</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F82" s="23">
         <f t="shared" si="11"/>
-        <v>2.4378050244932914E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" si="14"/>
-        <v>4061.547385887181</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J82" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K82" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -11426,35 +11424,35 @@
       </c>
       <c r="B83" s="8">
         <f t="shared" si="13"/>
-        <v>24378.050244932914</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C83" s="20">
         <f t="shared" si="17"/>
-        <v>731.34150734798743</v>
+        <v>0</v>
       </c>
       <c r="D83" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E83" s="22">
         <f t="shared" si="10"/>
-        <v>25109.391752280902</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F83" s="23">
         <f t="shared" si="11"/>
-        <v>2.5109391752280901E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" si="14"/>
-        <v>4183.3938074637963</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J83" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K83" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -11463,35 +11461,35 @@
       </c>
       <c r="B84" s="8">
         <f t="shared" si="13"/>
-        <v>25109.391752280902</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C84" s="20">
         <f t="shared" si="17"/>
-        <v>753.28175256842701</v>
+        <v>0</v>
       </c>
       <c r="D84" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E84" s="22">
         <f t="shared" si="10"/>
-        <v>25862.673504849328</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F84" s="23">
         <f t="shared" si="11"/>
-        <v>2.5862673504849329E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" si="14"/>
-        <v>4308.8956216877104</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J84" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K84" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -11500,35 +11498,35 @@
       </c>
       <c r="B85" s="8">
         <f t="shared" si="13"/>
-        <v>25862.673504849328</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C85" s="20">
         <f t="shared" si="17"/>
-        <v>775.88020514547986</v>
+        <v>0</v>
       </c>
       <c r="D85" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E85" s="22">
         <f t="shared" si="10"/>
-        <v>26638.553709994809</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F85" s="23">
         <f t="shared" si="11"/>
-        <v>2.6638553709994808E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" si="14"/>
-        <v>4438.1624903383417</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J85" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K85" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -11537,35 +11535,35 @@
       </c>
       <c r="B86" s="8">
         <f t="shared" si="13"/>
-        <v>26638.553709994809</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C86" s="20">
         <f t="shared" si="17"/>
-        <v>799.15661129984426</v>
+        <v>0</v>
       </c>
       <c r="D86" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E86" s="22">
         <f t="shared" si="10"/>
-        <v>27437.710321294653</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F86" s="23">
         <f t="shared" si="11"/>
-        <v>2.7437710321294652E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" si="14"/>
-        <v>4571.3073650484921</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J86" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K86" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -11574,31 +11572,31 @@
       </c>
       <c r="B87" s="8">
         <f t="shared" si="13"/>
-        <v>27437.710321294653</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C87" s="20">
         <f t="shared" si="17"/>
-        <v>823.13130963883953</v>
+        <v>0</v>
       </c>
       <c r="D87" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E87" s="22">
         <f t="shared" si="10"/>
-        <v>28260.841630933493</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F87" s="23">
         <f t="shared" si="11"/>
-        <v>2.8260841630933491E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" si="14"/>
-        <v>4708.4465859999473</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J87" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K87" s="6">
         <f t="shared" si="15"/>
@@ -11611,35 +11609,35 @@
       </c>
       <c r="B88" s="8">
         <f t="shared" si="13"/>
-        <v>28260.841630933493</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C88" s="20">
         <f t="shared" si="17"/>
-        <v>847.82524892800473</v>
+        <v>0</v>
       </c>
       <c r="D88" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E88" s="22">
         <f t="shared" si="10"/>
-        <v>29108.666879861499</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F88" s="23">
         <f t="shared" si="11"/>
-        <v>2.9108666879861501E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" si="14"/>
-        <v>4849.6999835799452</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J88" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K88" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -11648,35 +11646,35 @@
       </c>
       <c r="B89" s="8">
         <f t="shared" si="13"/>
-        <v>29108.666879861499</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C89" s="20">
         <f t="shared" si="17"/>
-        <v>873.26000639584493</v>
+        <v>0</v>
       </c>
       <c r="D89" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E89" s="22">
         <f t="shared" si="10"/>
-        <v>29981.926886257344</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F89" s="23">
         <f t="shared" si="11"/>
-        <v>2.9981926886257343E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" si="14"/>
-        <v>4995.1909830873437</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J89" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K89" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -11685,35 +11683,35 @@
       </c>
       <c r="B90" s="8">
         <f t="shared" si="13"/>
-        <v>29981.926886257344</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C90" s="20">
         <f t="shared" si="17"/>
-        <v>899.45780658772026</v>
+        <v>0</v>
       </c>
       <c r="D90" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E90" s="22">
         <f t="shared" si="10"/>
-        <v>30881.384692845066</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F90" s="23">
         <f t="shared" si="11"/>
-        <v>3.0881384692845065E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I90" s="8">
         <f t="shared" si="14"/>
-        <v>5145.0467125799642</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J90" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K90" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -11722,35 +11720,35 @@
       </c>
       <c r="B91" s="8">
         <f t="shared" si="13"/>
-        <v>30881.384692845066</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C91" s="20">
         <f t="shared" si="17"/>
-        <v>926.44154078535189</v>
+        <v>0</v>
       </c>
       <c r="D91" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E91" s="22">
         <f t="shared" si="10"/>
-        <v>31807.826233630418</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F91" s="23">
         <f t="shared" si="11"/>
-        <v>3.1807826233630418E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" si="14"/>
-        <v>5299.3981139573634</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J91" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K91" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -11759,35 +11757,35 @@
       </c>
       <c r="B92" s="8">
         <f t="shared" si="13"/>
-        <v>31807.826233630418</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C92" s="20">
         <f t="shared" si="17"/>
-        <v>954.23478700891246</v>
+        <v>0</v>
       </c>
       <c r="D92" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E92" s="22">
         <f t="shared" si="10"/>
-        <v>32762.061020639332</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F92" s="23">
         <f t="shared" si="11"/>
-        <v>3.2762061020639331E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" si="14"/>
-        <v>5458.3800573760846</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J92" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K92" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -11796,35 +11794,35 @@
       </c>
       <c r="B93" s="8">
         <f t="shared" si="13"/>
-        <v>32762.061020639332</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C93" s="20">
         <f t="shared" si="17"/>
-        <v>982.86183061917995</v>
+        <v>0</v>
       </c>
       <c r="D93" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E93" s="22">
         <f t="shared" si="10"/>
-        <v>33744.92285125851</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F93" s="23">
         <f t="shared" si="11"/>
-        <v>3.3744922851258511E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" si="14"/>
-        <v>5622.131459097367</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J93" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K93" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -11833,31 +11831,31 @@
       </c>
       <c r="B94" s="8">
         <f t="shared" si="13"/>
-        <v>33744.92285125851</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C94" s="20">
         <f t="shared" si="17"/>
-        <v>1012.3476855377553</v>
+        <v>0</v>
       </c>
       <c r="D94" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E94" s="22">
         <f t="shared" si="10"/>
-        <v>34757.270536796263</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F94" s="23">
         <f t="shared" si="11"/>
-        <v>3.4757270536796264E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I94" s="8">
         <f t="shared" si="14"/>
-        <v>5790.7954028702879</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J94" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K94" s="6">
         <f t="shared" si="15"/>
@@ -11870,31 +11868,31 @@
       </c>
       <c r="B95" s="8">
         <f t="shared" si="13"/>
-        <v>34757.270536796263</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C95" s="20">
         <f t="shared" si="17"/>
-        <v>1042.718116103888</v>
+        <v>0</v>
       </c>
       <c r="D95" s="21">
         <f t="shared" si="16"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E95" s="22">
         <f t="shared" si="10"/>
-        <v>35799.988652900152</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F95" s="23">
         <f t="shared" si="11"/>
-        <v>3.579998865290015E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" si="14"/>
-        <v>5964.519264956396</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J95" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K95" s="6">
         <f t="shared" si="15"/>
@@ -11907,35 +11905,35 @@
       </c>
       <c r="B96" s="8">
         <f t="shared" si="13"/>
-        <v>35799.988652900152</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C96" s="20">
         <f t="shared" si="17"/>
-        <v>1073.9996595870045</v>
+        <v>0</v>
       </c>
       <c r="D96" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E96" s="22">
         <f t="shared" si="10"/>
-        <v>36873.988312487156</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F96" s="23">
         <f t="shared" si="11"/>
-        <v>3.6873988312487154E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I96" s="8">
         <f t="shared" si="14"/>
-        <v>6143.4548429050874</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J96" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K96" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482022</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -11944,35 +11942,35 @@
       </c>
       <c r="B97" s="8">
         <f t="shared" si="13"/>
-        <v>36873.988312487156</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C97" s="20">
         <f t="shared" si="17"/>
-        <v>1106.2196493746146</v>
+        <v>0</v>
       </c>
       <c r="D97" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E97" s="22">
         <f t="shared" si="10"/>
-        <v>37980.207961861772</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F97" s="23">
         <f t="shared" si="11"/>
-        <v>3.7980207961861774E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I97" s="8">
         <f t="shared" si="14"/>
-        <v>6327.7584881922403</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J97" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K97" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -11981,31 +11979,31 @@
       </c>
       <c r="B98" s="8">
         <f t="shared" si="13"/>
-        <v>37980.207961861772</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C98" s="20">
         <f t="shared" si="17"/>
-        <v>1139.4062388558532</v>
+        <v>0</v>
       </c>
       <c r="D98" s="21">
         <f t="shared" si="16"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E98" s="22">
         <f t="shared" si="10"/>
-        <v>39119.614200717624</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F98" s="23">
         <f t="shared" si="11"/>
-        <v>3.9119614200717624E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I98" s="8">
         <f t="shared" si="14"/>
-        <v>6517.5912428380088</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J98" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K98" s="6">
         <f t="shared" si="15"/>
@@ -12018,31 +12016,31 @@
       </c>
       <c r="B99" s="8">
         <f t="shared" si="13"/>
-        <v>39119.614200717624</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C99" s="20">
         <f t="shared" si="17"/>
-        <v>1173.5884260215287</v>
+        <v>0</v>
       </c>
       <c r="D99" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E99" s="22">
         <f t="shared" si="10"/>
-        <v>40293.202626739156</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F99" s="23">
         <f t="shared" si="11"/>
-        <v>4.0293202626739159E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I99" s="8">
         <f t="shared" si="14"/>
-        <v>6713.1189801231485</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J99" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K99" s="6">
         <f t="shared" si="15"/>
@@ -12055,35 +12053,35 @@
       </c>
       <c r="B100" s="8">
         <f t="shared" si="13"/>
-        <v>40293.202626739156</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C100" s="20">
         <f t="shared" si="17"/>
-        <v>1208.7960788021746</v>
+        <v>0</v>
       </c>
       <c r="D100" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E100" s="22">
         <f t="shared" si="10"/>
-        <v>41501.998705541329</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F100" s="23">
         <f t="shared" si="11"/>
-        <v>4.1501998705541334E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I100" s="8">
         <f t="shared" si="14"/>
-        <v>6914.512549526843</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J100" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K100" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -12092,31 +12090,31 @@
       </c>
       <c r="B101" s="8">
         <f t="shared" si="13"/>
-        <v>41501.998705541329</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C101" s="20">
         <f t="shared" si="17"/>
-        <v>1245.0599611662399</v>
+        <v>0</v>
       </c>
       <c r="D101" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E101" s="22">
         <f t="shared" si="10"/>
-        <v>42747.05866670757</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F101" s="23">
         <f t="shared" si="11"/>
-        <v>4.274705866670757E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I101" s="8">
         <f t="shared" si="14"/>
-        <v>7121.9479260126482</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J101" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K101" s="6">
         <f t="shared" si="15"/>
@@ -12129,35 +12127,35 @@
       </c>
       <c r="B102" s="8">
         <f t="shared" si="13"/>
-        <v>42747.05866670757</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C102" s="20">
         <f t="shared" si="17"/>
-        <v>1282.4117600012271</v>
+        <v>0</v>
       </c>
       <c r="D102" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E102" s="22">
         <f t="shared" si="10"/>
-        <v>44029.470426708795</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F102" s="23">
         <f t="shared" si="11"/>
-        <v>4.4029470426708798E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I102" s="8">
         <f t="shared" ref="I102:I133" si="18">B102*$J$2/$J$3</f>
-        <v>7335.6063637930274</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J102" s="20">
         <f t="shared" si="12"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K102" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -12166,31 +12164,31 @@
       </c>
       <c r="B103" s="8">
         <f t="shared" si="13"/>
-        <v>44029.470426708795</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C103" s="20">
         <f t="shared" si="17"/>
-        <v>1320.8841128012639</v>
+        <v>0</v>
       </c>
       <c r="D103" s="21">
         <f t="shared" si="16"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E103" s="22">
         <f t="shared" ref="E103:E115" si="19">B103+C103</f>
-        <v>45350.354539510059</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F103" s="23">
         <f t="shared" ref="F103:F115" si="20">E103/10000000</f>
-        <v>4.5350354539510059E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I103" s="8">
         <f t="shared" si="18"/>
-        <v>7555.6745547068185</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J103" s="20">
         <f t="shared" ref="J103:J164" si="21">C103/I103</f>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K103" s="6">
         <f t="shared" si="15"/>
@@ -12203,35 +12201,35 @@
       </c>
       <c r="B104" s="8">
         <f t="shared" ref="B104:B115" si="22">E103</f>
-        <v>45350.354539510059</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C104" s="20">
         <f t="shared" si="17"/>
-        <v>1360.5106361853018</v>
+        <v>0</v>
       </c>
       <c r="D104" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E104" s="22">
         <f t="shared" si="19"/>
-        <v>46710.865175695362</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F104" s="23">
         <f t="shared" si="20"/>
-        <v>4.6710865175695363E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I104" s="8">
         <f t="shared" si="18"/>
-        <v>7782.3447913480231</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J104" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K104" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -12240,31 +12238,31 @@
       </c>
       <c r="B105" s="8">
         <f t="shared" si="22"/>
-        <v>46710.865175695362</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C105" s="20">
         <f t="shared" si="17"/>
-        <v>1401.3259552708607</v>
+        <v>0</v>
       </c>
       <c r="D105" s="21">
         <f t="shared" si="16"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="E105" s="22">
         <f t="shared" si="19"/>
-        <v>48112.191130966225</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F105" s="23">
         <f t="shared" si="20"/>
-        <v>4.8112191130966226E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I105" s="8">
         <f t="shared" si="18"/>
-        <v>8015.8151350884636</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J105" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K105" s="6">
         <f t="shared" si="15"/>
@@ -12277,35 +12275,35 @@
       </c>
       <c r="B106" s="8">
         <f t="shared" si="22"/>
-        <v>48112.191130966225</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C106" s="20">
         <f t="shared" si="17"/>
-        <v>1443.3657339289866</v>
+        <v>0</v>
       </c>
       <c r="D106" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E106" s="22">
         <f t="shared" si="19"/>
-        <v>49555.55686489521</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F106" s="23">
         <f t="shared" si="20"/>
-        <v>4.955555686489521E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I106" s="8">
         <f t="shared" si="18"/>
-        <v>8256.2895891411172</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J106" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K106" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -12314,35 +12312,35 @@
       </c>
       <c r="B107" s="8">
         <f t="shared" si="22"/>
-        <v>49555.55686489521</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C107" s="20">
         <f t="shared" si="17"/>
-        <v>1486.6667059468562</v>
+        <v>0</v>
       </c>
       <c r="D107" s="21">
         <f t="shared" si="16"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="E107" s="22">
         <f t="shared" si="19"/>
-        <v>51042.223570842063</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F107" s="23">
         <f t="shared" si="20"/>
-        <v>5.1042223570842062E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I107" s="8">
         <f t="shared" si="18"/>
-        <v>8503.9782768153509</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J107" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K107" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -12351,35 +12349,35 @@
       </c>
       <c r="B108" s="8">
         <f t="shared" si="22"/>
-        <v>51042.223570842063</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C108" s="20">
         <f t="shared" si="17"/>
-        <v>1531.2667071252617</v>
+        <v>0</v>
       </c>
       <c r="D108" s="21">
         <f t="shared" si="16"/>
-        <v>2.9999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="E108" s="22">
         <f t="shared" si="19"/>
-        <v>52573.490277967328</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F108" s="23">
         <f t="shared" si="20"/>
-        <v>5.2573490277967325E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I108" s="8">
         <f t="shared" si="18"/>
-        <v>8759.0976251198117</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J108" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K108" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -12388,31 +12386,31 @@
       </c>
       <c r="B109" s="8">
         <f t="shared" si="22"/>
-        <v>52573.490277967328</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C109" s="20">
         <f t="shared" si="17"/>
-        <v>1577.2047083390198</v>
+        <v>0</v>
       </c>
       <c r="D109" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E109" s="22">
         <f t="shared" si="19"/>
-        <v>54150.694986306349</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F109" s="23">
         <f t="shared" si="20"/>
-        <v>5.4150694986306348E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I109" s="8">
         <f t="shared" si="18"/>
-        <v>9021.8705538734066</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J109" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489206</v>
+        <v>0</v>
       </c>
       <c r="K109" s="6">
         <f t="shared" si="15"/>
@@ -12425,35 +12423,35 @@
       </c>
       <c r="B110" s="8">
         <f t="shared" si="22"/>
-        <v>54150.694986306349</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C110" s="20">
         <f t="shared" si="17"/>
-        <v>1624.5208495891904</v>
+        <v>0</v>
       </c>
       <c r="D110" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E110" s="22">
         <f t="shared" si="19"/>
-        <v>55775.215835895542</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F110" s="23">
         <f t="shared" si="20"/>
-        <v>5.5775215835895545E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I110" s="8">
         <f t="shared" si="18"/>
-        <v>9292.5266704896076</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J110" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K110" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -12462,35 +12460,35 @@
       </c>
       <c r="B111" s="8">
         <f t="shared" si="22"/>
-        <v>55775.215835895542</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C111" s="20">
         <f t="shared" si="17"/>
-        <v>1673.2564750768663</v>
+        <v>0</v>
       </c>
       <c r="D111" s="21">
         <f t="shared" si="16"/>
-        <v>3.0000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E111" s="22">
         <f t="shared" si="19"/>
-        <v>57448.472310972407</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F111" s="23">
         <f t="shared" si="20"/>
-        <v>5.7448472310972411E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I111" s="8">
         <f t="shared" si="18"/>
-        <v>9571.3024706042961</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J111" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489212</v>
+        <v>0</v>
       </c>
       <c r="K111" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -12499,35 +12497,35 @@
       </c>
       <c r="B112" s="8">
         <f t="shared" si="22"/>
-        <v>57448.472310972407</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C112" s="20">
         <f t="shared" si="17"/>
-        <v>1723.4541693291721</v>
+        <v>0</v>
       </c>
       <c r="D112" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E112" s="22">
         <f t="shared" si="19"/>
-        <v>59171.926480301583</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F112" s="23">
         <f t="shared" si="20"/>
-        <v>5.9171926480301581E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I112" s="8">
         <f t="shared" si="18"/>
-        <v>9858.4415447224255</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J112" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K112" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -12536,35 +12534,35 @@
       </c>
       <c r="B113" s="8">
         <f t="shared" si="22"/>
-        <v>59171.926480301583</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C113" s="20">
         <f t="shared" si="17"/>
-        <v>1775.1577944090475</v>
+        <v>0</v>
       </c>
       <c r="D113" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E113" s="22">
         <f t="shared" si="19"/>
-        <v>60947.084274710629</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F113" s="23">
         <f t="shared" si="20"/>
-        <v>6.0947084274710628E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I113" s="8">
         <f t="shared" si="18"/>
-        <v>10154.194791064099</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J113" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K113" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -12573,35 +12571,35 @@
       </c>
       <c r="B114" s="8">
         <f t="shared" si="22"/>
-        <v>60947.084274710629</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C114" s="20">
         <f t="shared" si="17"/>
-        <v>1828.4125282413188</v>
+        <v>0</v>
       </c>
       <c r="D114" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E114" s="22">
         <f t="shared" si="19"/>
-        <v>62775.496802951951</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F114" s="23">
         <f t="shared" si="20"/>
-        <v>6.2775496802951955E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I114" s="8">
         <f t="shared" si="18"/>
-        <v>10458.82063479602</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J114" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K114" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482022</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -12610,35 +12608,35 @@
       </c>
       <c r="B115" s="8">
         <f t="shared" si="22"/>
-        <v>62775.496802951951</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="C115" s="20">
         <f t="shared" si="17"/>
-        <v>1883.2649040885585</v>
+        <v>0</v>
       </c>
       <c r="D115" s="21">
         <f t="shared" si="16"/>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E115" s="22">
         <f t="shared" si="19"/>
-        <v>64658.76170704051</v>
+        <v>2868.5942999999997</v>
       </c>
       <c r="F115" s="23">
         <f t="shared" si="20"/>
-        <v>6.4658761707040513E-3</v>
+        <v>2.8685942999999995E-4</v>
       </c>
       <c r="I115" s="8">
         <f t="shared" si="18"/>
-        <v>10772.585253839903</v>
+        <v>492.26494777777776</v>
       </c>
       <c r="J115" s="20">
         <f t="shared" si="21"/>
-        <v>0.17482014388489209</v>
+        <v>0</v>
       </c>
       <c r="K115" s="6">
         <f t="shared" si="15"/>
-        <v>0.29136690647482016</v>
+        <v>0.29136690647482011</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -19910,7 +19908,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19921,12 +19919,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="54">
+      <c r="D1" s="55">
         <v>43040</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="53">
-        <v>-5.3190000000000001E-2</v>
+        <v>-5.1286999999999999E-2</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -19967,23 +19965,23 @@
       <c r="C4" s="34">
         <v>31</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="54">
         <v>1</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="54">
         <v>2</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="54">
         <v>3</v>
       </c>
       <c r="G4" s="32">
         <v>4</v>
       </c>
       <c r="H4" s="52">
-        <v>-5.3190000000000001E-2</v>
+        <v>-5.1286999999999999E-2</v>
       </c>
       <c r="I4" s="33">
-        <v>-5.3190000000000001E-2</v>
+        <v>-5.1286999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20084,10 +20082,10 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="56">
+      <c r="D13" s="57">
         <v>43009</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="43">
         <v>0</v>
       </c>
